--- a/report/reliability/comb/Escola de Enfermagem e Farmácia - ESENFAR-Graduação (bacharelado).xlsx
+++ b/report/reliability/comb/Escola de Enfermagem e Farmácia - ESENFAR-Graduação (bacharelado).xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="51">
   <si>
     <t>Reliability Analysis of all</t>
   </si>
@@ -74,22 +74,25 @@
     <t>med.r</t>
   </si>
   <si>
+    <t>Item8</t>
+  </si>
+  <si>
     <t>Item9</t>
   </si>
   <si>
     <t>Item10</t>
   </si>
   <si>
-    <t>Item12</t>
-  </si>
-  <si>
-    <t>Item13</t>
+    <t>Item14</t>
   </si>
   <si>
     <t>Item15</t>
   </si>
   <si>
     <t>Item16</t>
+  </si>
+  <si>
+    <t>Item17</t>
   </si>
   <si>
     <t>Item18</t>
@@ -1011,16 +1014,6 @@
     </font>
     <font>
       <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
       <sz val="22.0"/>
       <color rgb="000000"/>
       <b val="true"/>
@@ -1852,6 +1845,11 @@
     </font>
     <font>
       <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
       <sz val="22.0"/>
       <color rgb="000000"/>
       <b val="true"/>
@@ -2232,6 +2230,11 @@
       <sz val="12.0"/>
       <color rgb="000000"/>
       <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -3394,7 +3397,9 @@
     <xf numFmtId="0" fontId="134" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="135" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="136" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="137" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="138" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="139" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3420,16 +3425,14 @@
     <xf numFmtId="0" fontId="149" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="150" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="151" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="152" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="152" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="150" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="152" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="150" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="151" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="152" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="153" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="154" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="155" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3437,7 +3440,9 @@
     <xf numFmtId="0" fontId="157" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="158" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="159" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="160" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="161" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="162" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3451,23 +3456,23 @@
     <xf numFmtId="0" fontId="166" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="167" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="168" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="169" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="169" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="167" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="169" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="167" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="168" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="169" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="170" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="171" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="172" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="173" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="174" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="175" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="176" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="177" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="178" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3481,22 +3486,22 @@
     <xf numFmtId="0" fontId="182" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="183" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="184" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="185" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="185" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="183" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="185" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="183" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="184" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="185" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="186" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="187" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="188" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="189" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="190" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="191" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="192" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="193" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3510,22 +3515,22 @@
     <xf numFmtId="0" fontId="197" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="198" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="199" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="200" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="200" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="198" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="200" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="198" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="199" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="200" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="201" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="202" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="203" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="204" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="205" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="206" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="207" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="208" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3551,16 +3556,14 @@
     <xf numFmtId="0" fontId="218" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="219" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="220" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="221" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="221" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="219" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="221" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="219" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="220" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="221" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="222" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="223" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="224" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3568,7 +3571,9 @@
     <xf numFmtId="0" fontId="226" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="227" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="228" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="229" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="230" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="231" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3582,23 +3587,23 @@
     <xf numFmtId="0" fontId="235" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="236" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="237" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="238" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="238" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="236" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="238" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="236" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="237" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="238" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="239" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="240" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="241" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="242" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="243" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="244" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="245" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="246" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="247" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3612,22 +3617,22 @@
     <xf numFmtId="0" fontId="251" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="252" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="253" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="254" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="254" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="252" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="254" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="252" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="253" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="254" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="255" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="256" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="257" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="258" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="259" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="260" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="261" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="262" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3641,21 +3646,20 @@
     <xf numFmtId="0" fontId="266" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="267" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="268" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="269" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="269" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="267" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="269" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="267" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="268" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="269" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="270" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="271" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="272" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="273" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="274" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="275" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="276" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3683,14 +3687,13 @@
     <xf numFmtId="0" fontId="287" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="288" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="289" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="289" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="288" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="289" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="288" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="289" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="291" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="292" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3699,6 +3702,7 @@
     <xf numFmtId="0" fontId="295" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="296" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="297" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="298" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="299" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3714,14 +3718,13 @@
     <xf numFmtId="0" fontId="304" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="305" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="306" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="306" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="305" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="306" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="305" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="306" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="308" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="309" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3729,6 +3732,7 @@
     <xf numFmtId="0" fontId="311" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="312" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="313" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="314" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="315" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3744,20 +3748,20 @@
     <xf numFmtId="0" fontId="320" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="321" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="322" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="322" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="321" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="322" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="321" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="322" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="324" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="325" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="326" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="327" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="328" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="329" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="330" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3773,14 +3777,13 @@
     <xf numFmtId="0" fontId="335" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="336" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="337" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="337" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="336" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="337" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="336" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="337" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="339" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="340" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -4122,31 +4125,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="31">
-        <v>0.6747620911005836</v>
+        <v>0.5869662832834409</v>
       </c>
       <c r="B6" t="n" s="32">
-        <v>0.6895594043950314</v>
+        <v>0.6586135671705334</v>
       </c>
       <c r="C6" t="n" s="33">
-        <v>0.8565250415160207</v>
+        <v>0.8058361672904384</v>
       </c>
       <c r="D6" t="n" s="34">
-        <v>0.15619102415611463</v>
+        <v>0.12922512278328943</v>
       </c>
       <c r="E6" t="n" s="35">
-        <v>2.2212281968189704</v>
+        <v>1.9292318142576335</v>
       </c>
       <c r="F6" t="n" s="36">
-        <v>0.060269171508831064</v>
+        <v>0.07452049482876906</v>
       </c>
       <c r="G6" t="n" s="37">
-        <v>2.3697916666666665</v>
+        <v>1.7620192307692308</v>
       </c>
       <c r="H6" t="n" s="38">
-        <v>0.5485420390514313</v>
+        <v>0.4316141091013529</v>
       </c>
       <c r="I6" t="n" s="39">
-        <v>0.10056468991742246</v>
+        <v>0.033141106109470325</v>
       </c>
     </row>
     <row r="7">
@@ -4196,28 +4199,28 @@
         <v>18</v>
       </c>
       <c r="B11" t="n" s="58">
-        <v>0.6323123073535888</v>
+        <v>0.5857988551506988</v>
       </c>
       <c r="C11" t="n" s="59">
-        <v>0.6495257136234507</v>
+        <v>0.6499657544740043</v>
       </c>
       <c r="D11" t="n" s="60">
-        <v>0.834904867808822</v>
+        <v>0.8053061524662755</v>
       </c>
       <c r="E11" t="n" s="61">
-        <v>0.1441870786561422</v>
+        <v>0.1340031495633492</v>
       </c>
       <c r="F11" t="n" s="62">
-        <v>1.853276371110434</v>
+        <v>1.8568633291788408</v>
       </c>
       <c r="G11" t="n" s="63">
-        <v>0.06855324458580338</v>
+        <v>0.0758164778622531</v>
       </c>
       <c r="H11" t="n" s="64">
-        <v>0.06321200194563013</v>
+        <v>0.07730941818182933</v>
       </c>
       <c r="I11" t="n" s="65">
-        <v>0.09928682322081152</v>
+        <v>0.052489174271253804</v>
       </c>
     </row>
     <row r="12">
@@ -4225,28 +4228,28 @@
         <v>19</v>
       </c>
       <c r="B12" t="n" s="58">
-        <v>0.6323120006589242</v>
+        <v>0.540624043102944</v>
       </c>
       <c r="C12" t="n" s="59">
-        <v>0.649017729962668</v>
+        <v>0.624056737556549</v>
       </c>
       <c r="D12" t="n" s="60">
-        <v>0.8272450703813583</v>
+        <v>0.7802948838494607</v>
       </c>
       <c r="E12" t="n" s="61">
-        <v>0.14391202782959575</v>
+        <v>0.12152114106216726</v>
       </c>
       <c r="F12" t="n" s="62">
-        <v>1.8491467671390796</v>
+        <v>1.6599758524743315</v>
       </c>
       <c r="G12" t="n" s="63">
-        <v>0.06855965377053821</v>
+        <v>0.08302036339472194</v>
       </c>
       <c r="H12" t="n" s="64">
-        <v>0.06129735877710393</v>
+        <v>0.07532160830253826</v>
       </c>
       <c r="I12" t="n" s="65">
-        <v>0.09928682322081152</v>
+        <v>0.03038057032330521</v>
       </c>
     </row>
     <row r="13">
@@ -4254,28 +4257,28 @@
         <v>20</v>
       </c>
       <c r="B13" t="n" s="58">
-        <v>0.6355231472713007</v>
+        <v>0.547750640061771</v>
       </c>
       <c r="C13" t="n" s="59">
-        <v>0.6570798501572751</v>
+        <v>0.6323781956774671</v>
       </c>
       <c r="D13" t="n" s="60">
-        <v>0.828371685564932</v>
+        <v>0.7803997405646586</v>
       </c>
       <c r="E13" t="n" s="61">
-        <v>0.1483517628156216</v>
+        <v>0.1253763431812585</v>
       </c>
       <c r="F13" t="n" s="62">
-        <v>1.9161307682229658</v>
+        <v>1.7201868557357127</v>
       </c>
       <c r="G13" t="n" s="63">
-        <v>0.06811643222429006</v>
+        <v>0.08178926381187378</v>
       </c>
       <c r="H13" t="n" s="64">
-        <v>0.05771252223021485</v>
+        <v>0.07450272784593312</v>
       </c>
       <c r="I13" t="n" s="65">
-        <v>0.08561135648386452</v>
+        <v>0.0321937387137121</v>
       </c>
     </row>
     <row r="14">
@@ -4283,28 +4286,28 @@
         <v>21</v>
       </c>
       <c r="B14" t="n" s="58">
-        <v>0.6114133716750539</v>
+        <v>0.5831494852741356</v>
       </c>
       <c r="C14" t="n" s="59">
-        <v>0.6275688807938445</v>
+        <v>0.6318459562109898</v>
       </c>
       <c r="D14" t="n" s="60">
-        <v>0.8128077682280439</v>
+        <v>0.8184908947089318</v>
       </c>
       <c r="E14" t="n" s="61">
-        <v>0.13283817582727683</v>
+        <v>0.12512558106305274</v>
       </c>
       <c r="F14" t="n" s="62">
-        <v>1.6850602659936702</v>
+        <v>1.7162542877652107</v>
       </c>
       <c r="G14" t="n" s="63">
-        <v>0.07251868595570014</v>
+        <v>0.0758573953030689</v>
       </c>
       <c r="H14" t="n" s="64">
-        <v>0.06046980458471937</v>
+        <v>0.05734620742397725</v>
       </c>
       <c r="I14" t="n" s="65">
-        <v>0.05415234305497888</v>
+        <v>0.052489174271253804</v>
       </c>
     </row>
     <row r="15">
@@ -4312,28 +4315,28 @@
         <v>22</v>
       </c>
       <c r="B15" t="n" s="58">
-        <v>0.6790984373537944</v>
+        <v>0.5797440554376999</v>
       </c>
       <c r="C15" t="n" s="59">
-        <v>0.6946417199800177</v>
+        <v>0.633342224303666</v>
       </c>
       <c r="D15" t="n" s="60">
-        <v>0.8214498124553705</v>
+        <v>0.8211436139681149</v>
       </c>
       <c r="E15" t="n" s="61">
-        <v>0.17136487749695764</v>
+        <v>0.12583202597892215</v>
       </c>
       <c r="F15" t="n" s="62">
-        <v>2.2748416055217513</v>
+        <v>1.7273388600606148</v>
       </c>
       <c r="G15" t="n" s="63">
-        <v>0.06031781116166057</v>
+        <v>0.07588911583016851</v>
       </c>
       <c r="H15" t="n" s="64">
-        <v>0.05298921954395525</v>
+        <v>0.056909346649761154</v>
       </c>
       <c r="I15" t="n" s="65">
-        <v>0.11433336076244098</v>
+        <v>0.052489174271253804</v>
       </c>
     </row>
     <row r="16">
@@ -4341,28 +4344,28 @@
         <v>23</v>
       </c>
       <c r="B16" t="n" s="58">
-        <v>0.6805816596751894</v>
+        <v>0.5810049490678454</v>
       </c>
       <c r="C16" t="n" s="59">
-        <v>0.6941487218621365</v>
+        <v>0.6299133078563555</v>
       </c>
       <c r="D16" t="n" s="60">
-        <v>0.821768107146537</v>
+        <v>0.809229755159558</v>
       </c>
       <c r="E16" t="n" s="61">
-        <v>0.17103524351261035</v>
+        <v>0.1242198915346885</v>
       </c>
       <c r="F16" t="n" s="62">
-        <v>2.26956292642742</v>
+        <v>1.702069599443642</v>
       </c>
       <c r="G16" t="n" s="63">
-        <v>0.060001285154233516</v>
+        <v>0.07551568198018627</v>
       </c>
       <c r="H16" t="n" s="64">
-        <v>0.05335000066466756</v>
+        <v>0.055027326213797016</v>
       </c>
       <c r="I16" t="n" s="65">
-        <v>0.11433336076244098</v>
+        <v>0.052489174271253804</v>
       </c>
     </row>
     <row r="17">
@@ -4370,28 +4373,28 @@
         <v>24</v>
       </c>
       <c r="B17" t="n" s="58">
-        <v>0.6551682716370698</v>
+        <v>0.57529101735226</v>
       </c>
       <c r="C17" t="n" s="59">
-        <v>0.6860865297017387</v>
+        <v>0.6563472352864669</v>
       </c>
       <c r="D17" t="n" s="60">
-        <v>0.8388258232631137</v>
+        <v>0.7910748067652146</v>
       </c>
       <c r="E17" t="n" s="61">
-        <v>0.1657560284779696</v>
+        <v>0.13730595474169704</v>
       </c>
       <c r="F17" t="n" s="62">
-        <v>2.1855912364953975</v>
+        <v>1.909914025669469</v>
       </c>
       <c r="G17" t="n" s="63">
-        <v>0.06367475022734098</v>
+        <v>0.07752590952754546</v>
       </c>
       <c r="H17" t="n" s="64">
-        <v>0.06287596301302457</v>
+        <v>0.0693351132085402</v>
       </c>
       <c r="I17" t="n" s="65">
-        <v>0.1018425566140334</v>
+        <v>0.033141106109470325</v>
       </c>
     </row>
     <row r="18">
@@ -4399,28 +4402,28 @@
         <v>25</v>
       </c>
       <c r="B18" t="n" s="58">
-        <v>0.7084986432730052</v>
+        <v>0.5496143562809594</v>
       </c>
       <c r="C18" t="n" s="59">
-        <v>0.7045993393165678</v>
+        <v>0.6493772413758645</v>
       </c>
       <c r="D18" t="n" s="60">
-        <v>0.8479650702688025</v>
+        <v>0.7801629049697071</v>
       </c>
       <c r="E18" t="n" s="61">
-        <v>0.17819882700719306</v>
+        <v>0.13370336643425004</v>
       </c>
       <c r="F18" t="n" s="62">
-        <v>2.385232780747419</v>
+        <v>1.8520681427642036</v>
       </c>
       <c r="G18" t="n" s="63">
-        <v>0.05281450822163617</v>
+        <v>0.08066117446710733</v>
       </c>
       <c r="H18" t="n" s="64">
-        <v>0.06082855377663571</v>
+        <v>0.06795226818453363</v>
       </c>
       <c r="I18" t="n" s="65">
-        <v>0.12717764555086536</v>
+        <v>0.04297335000617927</v>
       </c>
     </row>
     <row r="19">
@@ -4428,28 +4431,28 @@
         <v>26</v>
       </c>
       <c r="B19" t="n" s="58">
-        <v>0.6751810235546323</v>
+        <v>0.6222568168102265</v>
       </c>
       <c r="C19" t="n" s="59">
-        <v>0.6785059051752161</v>
+        <v>0.6682287787177601</v>
       </c>
       <c r="D19" t="n" s="60">
-        <v>0.8631659676021971</v>
+        <v>0.8007143661261342</v>
       </c>
       <c r="E19" t="n" s="61">
-        <v>0.16097637274308024</v>
+        <v>0.14372107959697303</v>
       </c>
       <c r="F19" t="n" s="62">
-        <v>2.110477038606279</v>
+        <v>2.0141252039136144</v>
       </c>
       <c r="G19" t="n" s="63">
-        <v>0.059990892293272376</v>
+        <v>0.06548944266809359</v>
       </c>
       <c r="H19" t="n" s="64">
-        <v>0.07057952452723397</v>
+        <v>0.06954006580944398</v>
       </c>
       <c r="I19" t="n" s="65">
-        <v>0.06912076022328784</v>
+        <v>0.053468100686225414</v>
       </c>
     </row>
     <row r="20">
@@ -4457,28 +4460,28 @@
         <v>27</v>
       </c>
       <c r="B20" t="n" s="58">
-        <v>0.6312105386234312</v>
+        <v>0.567771584934288</v>
       </c>
       <c r="C20" t="n" s="59">
-        <v>0.6462590619853205</v>
+        <v>0.6380144160199492</v>
       </c>
       <c r="D20" t="n" s="60">
-        <v>0.8471146294714589</v>
+        <v>0.8023792157265145</v>
       </c>
       <c r="E20" t="n" s="61">
-        <v>0.1424290840524538</v>
+        <v>0.12806798967434432</v>
       </c>
       <c r="F20" t="n" s="62">
-        <v>1.8269275408505354</v>
+        <v>1.7625409526118332</v>
       </c>
       <c r="G20" t="n" s="63">
-        <v>0.06874214233488624</v>
+        <v>0.07759060297777061</v>
       </c>
       <c r="H20" t="n" s="64">
-        <v>0.0687461883816553</v>
+        <v>0.079073047670454</v>
       </c>
       <c r="I20" t="n" s="65">
-        <v>0.05415234305497888</v>
+        <v>0.02719071504035904</v>
       </c>
     </row>
     <row r="21">
@@ -4486,28 +4489,28 @@
         <v>28</v>
       </c>
       <c r="B21" t="n" s="58">
-        <v>0.6481553555501501</v>
+        <v>0.5293275149679172</v>
       </c>
       <c r="C21" t="n" s="59">
-        <v>0.6666661064879981</v>
+        <v>0.6190010579831025</v>
       </c>
       <c r="D21" t="n" s="60">
-        <v>0.8199969027846621</v>
+        <v>0.7880117457783535</v>
       </c>
       <c r="E21" t="n" s="61">
-        <v>0.15384582569457686</v>
+        <v>0.11924531799999016</v>
       </c>
       <c r="F21" t="n" s="62">
-        <v>1.9999949584004542</v>
+        <v>1.6246792043733536</v>
       </c>
       <c r="G21" t="n" s="63">
-        <v>0.06484656338073957</v>
+        <v>0.0852145231519871</v>
       </c>
       <c r="H21" t="n" s="64">
-        <v>0.06315522202193838</v>
+        <v>0.07893156587485209</v>
       </c>
       <c r="I21" t="n" s="65">
-        <v>0.1018425566140334</v>
+        <v>0.023537684401279464</v>
       </c>
     </row>
     <row r="22">
@@ -4515,33 +4518,57 @@
         <v>29</v>
       </c>
       <c r="B22" t="n" s="58">
-        <v>0.6611377296532016</v>
+        <v>0.5451415455241009</v>
       </c>
       <c r="C22" t="n" s="59">
-        <v>0.679184129915565</v>
+        <v>0.6404681452949649</v>
       </c>
       <c r="D22" t="n" s="60">
-        <v>0.8268455020327852</v>
+        <v>0.7666620584694928</v>
       </c>
       <c r="E22" t="n" s="61">
-        <v>0.16139698575989764</v>
+        <v>0.12926084409492208</v>
       </c>
       <c r="F22" t="n" s="62">
-        <v>2.117052780888961</v>
+        <v>1.7813947134681958</v>
       </c>
       <c r="G22" t="n" s="63">
-        <v>0.06250882625457078</v>
+        <v>0.08155217828793437</v>
       </c>
       <c r="H22" t="n" s="64">
-        <v>0.0625754990557704</v>
+        <v>0.0733072286057063</v>
       </c>
       <c r="I22" t="n" s="65">
-        <v>0.11325612023276106</v>
+        <v>0.0321937387137121</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s">
-        <v>1</v>
+      <c r="A23" t="s" s="53">
+        <v>30</v>
+      </c>
+      <c r="B23" t="n" s="58">
+        <v>0.5558769835697234</v>
+      </c>
+      <c r="C23" t="n" s="59">
+        <v>0.6470862164899422</v>
+      </c>
+      <c r="D23" t="n" s="60">
+        <v>0.7684342854375594</v>
+      </c>
+      <c r="E23" t="n" s="61">
+        <v>0.13254391125714768</v>
+      </c>
+      <c r="F23" t="n" s="62">
+        <v>1.8335532550020133</v>
+      </c>
+      <c r="G23" t="n" s="63">
+        <v>0.0795480347531213</v>
+      </c>
+      <c r="H23" t="n" s="64">
+        <v>0.07270072514193</v>
+      </c>
+      <c r="I23" t="n" s="65">
+        <v>0.052489174271253804</v>
       </c>
     </row>
     <row r="24">
@@ -4550,458 +4577,437 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s" s="69">
-        <v>30</v>
+      <c r="A25" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26"/>
-      <c r="B26" t="s" s="83">
+      <c r="A26" t="s" s="69">
         <v>31</v>
       </c>
-      <c r="C26" t="s" s="83">
+    </row>
+    <row r="27">
+      <c r="A27"/>
+      <c r="B27" t="s" s="83">
         <v>32</v>
       </c>
-      <c r="D26" t="s" s="83">
+      <c r="C27" t="s" s="83">
         <v>33</v>
       </c>
-      <c r="E26" t="s" s="83">
+      <c r="D27" t="s" s="83">
         <v>34</v>
       </c>
-      <c r="F26" t="s" s="83">
+      <c r="E27" t="s" s="83">
         <v>35</v>
       </c>
-      <c r="G26" t="s" s="83">
+      <c r="F27" t="s" s="83">
+        <v>36</v>
+      </c>
+      <c r="G27" t="s" s="83">
         <v>9</v>
       </c>
-      <c r="H26" t="s" s="83">
+      <c r="H27" t="s" s="83">
         <v>10</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="79">
-        <v>18</v>
-      </c>
-      <c r="B27" t="n" s="84">
-        <v>64.0</v>
-      </c>
-      <c r="C27" t="n" s="85">
-        <v>0.5877125408448073</v>
-      </c>
-      <c r="D27" t="n" s="86">
-        <v>0.5915304726909998</v>
-      </c>
-      <c r="E27" t="n" s="87">
-        <v>0.5470965343527981</v>
-      </c>
-      <c r="F27" t="n" s="88">
-        <v>0.4617095872272633</v>
-      </c>
-      <c r="G27" t="n" s="89">
-        <v>3.3125</v>
-      </c>
-      <c r="H27" t="n" s="90">
-        <v>1.096531327587567</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="79">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B28" t="n" s="84">
         <v>64.0</v>
       </c>
       <c r="C28" t="n" s="85">
-        <v>0.5882394803503056</v>
+        <v>0.2694545054203877</v>
       </c>
       <c r="D28" t="n" s="86">
-        <v>0.5941792912121703</v>
+        <v>0.38819002476757286</v>
       </c>
       <c r="E28" t="n" s="87">
-        <v>0.5663590988241063</v>
+        <v>0.2910652243973447</v>
       </c>
       <c r="F28" t="n" s="88">
-        <v>0.4645408495776764</v>
+        <v>0.248611593111272</v>
       </c>
       <c r="G28" t="n" s="89">
-        <v>4.09375</v>
+        <v>0.984375</v>
       </c>
       <c r="H28" t="n" s="90">
-        <v>1.0796641159057772</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="79">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B29" t="n" s="84">
         <v>64.0</v>
       </c>
       <c r="C29" t="n" s="85">
-        <v>0.5724731703984802</v>
+        <v>0.525972932862928</v>
       </c>
       <c r="D29" t="n" s="86">
-        <v>0.5514233671244873</v>
+        <v>0.5312528893908073</v>
       </c>
       <c r="E29" t="n" s="87">
-        <v>0.5299950371282385</v>
+        <v>0.49188127356428674</v>
       </c>
       <c r="F29" t="n" s="88">
-        <v>0.4533707877032028</v>
+        <v>0.36225258126281795</v>
       </c>
       <c r="G29" t="n" s="89">
-        <v>3.46875</v>
+        <v>3.3125</v>
       </c>
       <c r="H29" t="n" s="90">
-        <v>1.0230478894592296</v>
+        <v>1.096531327587567</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="79">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B30" t="n" s="84">
         <v>64.0</v>
       </c>
       <c r="C30" t="n" s="85">
-        <v>0.69433531924399</v>
+        <v>0.4966886383151333</v>
       </c>
       <c r="D30" t="n" s="86">
-        <v>0.7008236690995103</v>
+        <v>0.48706639017423203</v>
       </c>
       <c r="E30" t="n" s="87">
-        <v>0.6975423625847521</v>
+        <v>0.4464452030558218</v>
       </c>
       <c r="F30" t="n" s="88">
-        <v>0.5912193997362492</v>
+        <v>0.3308286869886218</v>
       </c>
       <c r="G30" t="n" s="89">
-        <v>4.03125</v>
+        <v>4.09375</v>
       </c>
       <c r="H30" t="n" s="90">
-        <v>1.0978875820670997</v>
+        <v>1.0796641159057772</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="79">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B31" t="n" s="84">
         <v>64.0</v>
       </c>
       <c r="C31" t="n" s="85">
-        <v>0.16905284802483764</v>
+        <v>0.24784560927621463</v>
       </c>
       <c r="D31" t="n" s="86">
-        <v>0.3298004577766683</v>
+        <v>0.48994050670492595</v>
       </c>
       <c r="E31" t="n" s="87">
-        <v>0.34336922891004346</v>
+        <v>0.5032829372159163</v>
       </c>
       <c r="F31" t="n" s="88">
-        <v>0.08654857104047559</v>
+        <v>0.2064032340061474</v>
       </c>
       <c r="G31" t="n" s="89">
-        <v>0.125</v>
+        <v>0.0625</v>
       </c>
       <c r="H31" t="n" s="90">
-        <v>0.549169647365276</v>
+        <v>0.2439750182371333</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="79">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B32" t="n" s="84">
         <v>64.0</v>
       </c>
       <c r="C32" t="n" s="85">
-        <v>0.1689062092786109</v>
+        <v>0.26657799282493716</v>
       </c>
       <c r="D32" t="n" s="86">
-        <v>0.3329749277970263</v>
+        <v>0.48184356995366284</v>
       </c>
       <c r="E32" t="n" s="87">
-        <v>0.34659402313208</v>
+        <v>0.5034099818133093</v>
       </c>
       <c r="F32" t="n" s="88">
-        <v>0.07515944879685449</v>
+        <v>0.1724166363931972</v>
       </c>
       <c r="G32" t="n" s="89">
-        <v>0.15625</v>
+        <v>0.125</v>
       </c>
       <c r="H32" t="n" s="90">
-        <v>0.6228136361680157</v>
+        <v>0.549169647365276</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="79">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B33" t="n" s="84">
         <v>64.0</v>
       </c>
       <c r="C33" t="n" s="85">
-        <v>0.4754045028098313</v>
+        <v>0.2631613490845735</v>
       </c>
       <c r="D33" t="n" s="86">
-        <v>0.3838152860558197</v>
+        <v>0.5003210907571467</v>
       </c>
       <c r="E33" t="n" s="87">
-        <v>0.3294613571709379</v>
+        <v>0.36389384984651835</v>
       </c>
       <c r="F33" t="n" s="88">
-        <v>0.3124386763746053</v>
+        <v>0.15579583874629052</v>
       </c>
       <c r="G33" t="n" s="89">
-        <v>2.734375</v>
+        <v>0.15625</v>
       </c>
       <c r="H33" t="n" s="90">
-        <v>1.2246436151497235</v>
+        <v>0.6228136361680157</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="79">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B34" t="n" s="84">
         <v>64.0</v>
       </c>
       <c r="C34" t="n" s="85">
-        <v>0.3779636710670936</v>
+        <v>0.39252086577589423</v>
       </c>
       <c r="D34" t="n" s="86">
-        <v>0.26398755961982684</v>
+        <v>0.35033483743436816</v>
       </c>
       <c r="E34" t="n" s="87">
-        <v>0.19602516664871486</v>
+        <v>0.30785664609378927</v>
       </c>
       <c r="F34" t="n" s="88">
-        <v>0.11731271162533873</v>
+        <v>0.3505967042512492</v>
       </c>
       <c r="G34" t="n" s="89">
-        <v>2.78125</v>
+        <v>0.921875</v>
       </c>
       <c r="H34" t="n" s="90">
-        <v>1.7680475286292685</v>
+        <v>0.27048970875004197</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="79">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B35" t="n" s="84">
         <v>64.0</v>
       </c>
       <c r="C35" t="n" s="85">
-        <v>0.42265377327548886</v>
+        <v>0.5045170002507438</v>
       </c>
       <c r="D35" t="n" s="86">
-        <v>0.4298447446630141</v>
+        <v>0.3916259968878115</v>
       </c>
       <c r="E35" t="n" s="87">
-        <v>0.312466136932067</v>
+        <v>0.37122369735160066</v>
       </c>
       <c r="F35" t="n" s="88">
-        <v>0.2182277939999212</v>
+        <v>0.3147017916010538</v>
       </c>
       <c r="G35" t="n" s="89">
-        <v>1.328125</v>
+        <v>2.734375</v>
       </c>
       <c r="H35" t="n" s="90">
-        <v>1.448093300291527</v>
+        <v>1.2246436151497235</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="79">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B36" t="n" s="84">
         <v>64.0</v>
       </c>
       <c r="C36" t="n" s="85">
-        <v>0.5946700863240588</v>
+        <v>0.41870631204523145</v>
       </c>
       <c r="D36" t="n" s="86">
-        <v>0.6084604660483599</v>
+        <v>0.2768077172898344</v>
       </c>
       <c r="E36" t="n" s="87">
-        <v>0.5294575754302926</v>
+        <v>0.21665694685772294</v>
       </c>
       <c r="F36" t="n" s="88">
-        <v>0.44699340540979904</v>
+        <v>0.11334811660748749</v>
       </c>
       <c r="G36" t="n" s="89">
-        <v>2.421875</v>
+        <v>2.78125</v>
       </c>
       <c r="H36" t="n" s="90">
-        <v>1.2699792211773475</v>
+        <v>1.7680475286292685</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="79">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B37" t="n" s="84">
         <v>64.0</v>
       </c>
       <c r="C37" t="n" s="85">
-        <v>0.5091559432021432</v>
+        <v>0.4844186709412209</v>
       </c>
       <c r="D37" t="n" s="86">
-        <v>0.4985139623683627</v>
+        <v>0.4562160139853778</v>
       </c>
       <c r="E37" t="n" s="87">
-        <v>0.4844140945549722</v>
+        <v>0.3546727333107957</v>
       </c>
       <c r="F37" t="n" s="88">
-        <v>0.35434301407004615</v>
+        <v>0.25047202180956524</v>
       </c>
       <c r="G37" t="n" s="89">
-        <v>2.09375</v>
+        <v>1.328125</v>
       </c>
       <c r="H37" t="n" s="90">
-        <v>1.2047360245667467</v>
+        <v>1.448093300291527</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="79">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B38" t="n" s="84">
         <v>64.0</v>
       </c>
       <c r="C38" t="n" s="85">
-        <v>0.4393731787513196</v>
+        <v>0.5758864975232889</v>
       </c>
       <c r="D38" t="n" s="86">
-        <v>0.425794120408652</v>
+        <v>0.5573372945263946</v>
       </c>
       <c r="E38" t="n" s="87">
-        <v>0.40280937917156423</v>
+        <v>0.4891994153838443</v>
       </c>
       <c r="F38" t="n" s="88">
-        <v>0.27561325178864243</v>
+        <v>0.3931386422000999</v>
       </c>
       <c r="G38" t="n" s="89">
+        <v>2.421875</v>
+      </c>
+      <c r="H38" t="n" s="90">
+        <v>1.2699792211773475</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="79">
+        <v>29</v>
+      </c>
+      <c r="B39" t="n" s="84">
+        <v>64.0</v>
+      </c>
+      <c r="C39" t="n" s="85">
+        <v>0.5179170924566204</v>
+      </c>
+      <c r="D39" t="n" s="86">
+        <v>0.4425440820627082</v>
+      </c>
+      <c r="E39" t="n" s="87">
+        <v>0.435161613220934</v>
+      </c>
+      <c r="F39" t="n" s="88">
+        <v>0.33408375819006636</v>
+      </c>
+      <c r="G39" t="n" s="89">
+        <v>2.09375</v>
+      </c>
+      <c r="H39" t="n" s="90">
+        <v>1.2047360245667467</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="79">
+        <v>30</v>
+      </c>
+      <c r="B40" t="n" s="84">
+        <v>64.0</v>
+      </c>
+      <c r="C40" t="n" s="85">
+        <v>0.4782935531804445</v>
+      </c>
+      <c r="D40" t="n" s="86">
+        <v>0.40491512251393114</v>
+      </c>
+      <c r="E40" t="n" s="87">
+        <v>0.3944687447000303</v>
+      </c>
+      <c r="F40" t="n" s="88">
+        <v>0.2888881905584601</v>
+      </c>
+      <c r="G40" t="n" s="89">
         <v>1.890625</v>
       </c>
-      <c r="H38" t="n" s="90">
+      <c r="H40" t="n" s="90">
         <v>1.1967838846954226</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="s">
+    <row r="41">
+      <c r="A41" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="s">
+    <row r="42">
+      <c r="A42" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="s" s="94">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42"/>
-      <c r="B42" t="s" s="108">
+    <row r="43">
+      <c r="A43" t="s" s="94">
         <v>37</v>
       </c>
-      <c r="C42" t="s" s="108">
+    </row>
+    <row r="44">
+      <c r="A44"/>
+      <c r="B44" t="s" s="108">
         <v>38</v>
       </c>
-      <c r="D42" t="s" s="108">
+      <c r="C44" t="s" s="108">
         <v>39</v>
       </c>
-      <c r="E42" t="s" s="108">
+      <c r="D44" t="s" s="108">
         <v>40</v>
       </c>
-      <c r="F42" t="s" s="108">
+      <c r="E44" t="s" s="108">
         <v>41</v>
       </c>
-      <c r="G42" t="s" s="108">
+      <c r="F44" t="s" s="108">
         <v>42</v>
       </c>
-      <c r="H42" t="s" s="108">
+      <c r="G44" t="s" s="108">
         <v>43</v>
       </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s" s="104">
-        <v>18</v>
-      </c>
-      <c r="B43" t="n" s="109">
-        <v>0.015625</v>
-      </c>
-      <c r="C43" t="n" s="110">
-        <v>0.09375</v>
-      </c>
-      <c r="D43" t="n" s="111">
-        <v>0.015625</v>
-      </c>
-      <c r="E43" t="n" s="112">
-        <v>0.40625</v>
-      </c>
-      <c r="F43" t="n" s="113">
-        <v>0.375</v>
-      </c>
-      <c r="G43" t="n" s="114">
-        <v>0.09375</v>
-      </c>
-      <c r="H43" t="n" s="115">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s" s="104">
-        <v>19</v>
-      </c>
-      <c r="B44" t="n" s="109">
-        <v>0.015625</v>
-      </c>
-      <c r="C44" t="n" s="110">
-        <v>0.0</v>
-      </c>
-      <c r="D44" t="n" s="111">
-        <v>0.03125</v>
-      </c>
-      <c r="E44" t="n" s="112">
-        <v>0.28125</v>
-      </c>
-      <c r="F44" t="n" s="113">
-        <v>0.171875</v>
-      </c>
-      <c r="G44" t="n" s="114">
-        <v>0.5</v>
-      </c>
-      <c r="H44" t="n" s="115">
-        <v>0.0</v>
+      <c r="H44" t="s" s="108">
+        <v>44</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="104">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B45" t="n" s="109">
-        <v>0.0</v>
+        <v>0.015625</v>
       </c>
       <c r="C45" t="n" s="110">
-        <v>0.09375</v>
+        <v>0.984375</v>
       </c>
       <c r="D45" t="n" s="111">
-        <v>0.015625</v>
+        <v>0.0</v>
       </c>
       <c r="E45" t="n" s="112">
-        <v>0.3125</v>
+        <v>0.0</v>
       </c>
       <c r="F45" t="n" s="113">
-        <v>0.484375</v>
+        <v>0.0</v>
       </c>
       <c r="G45" t="n" s="114">
-        <v>0.09375</v>
+        <v>0.0</v>
       </c>
       <c r="H45" t="n" s="115">
         <v>0.0</v>
@@ -5009,25 +5015,25 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="104">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B46" t="n" s="109">
-        <v>0.0</v>
+        <v>0.015625</v>
       </c>
       <c r="C46" t="n" s="110">
-        <v>0.0</v>
+        <v>0.09375</v>
       </c>
       <c r="D46" t="n" s="111">
+        <v>0.015625</v>
+      </c>
+      <c r="E46" t="n" s="112">
+        <v>0.40625</v>
+      </c>
+      <c r="F46" t="n" s="113">
+        <v>0.375</v>
+      </c>
+      <c r="G46" t="n" s="114">
         <v>0.09375</v>
-      </c>
-      <c r="E46" t="n" s="112">
-        <v>0.296875</v>
-      </c>
-      <c r="F46" t="n" s="113">
-        <v>0.09375</v>
-      </c>
-      <c r="G46" t="n" s="114">
-        <v>0.515625</v>
       </c>
       <c r="H46" t="n" s="115">
         <v>0.0</v>
@@ -5035,25 +5041,25 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="104">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B47" t="n" s="109">
-        <v>0.9375</v>
+        <v>0.015625</v>
       </c>
       <c r="C47" t="n" s="110">
+        <v>0.0</v>
+      </c>
+      <c r="D47" t="n" s="111">
         <v>0.03125</v>
       </c>
-      <c r="D47" t="n" s="111">
-        <v>0.0</v>
-      </c>
       <c r="E47" t="n" s="112">
-        <v>0.03125</v>
+        <v>0.28125</v>
       </c>
       <c r="F47" t="n" s="113">
-        <v>0.0</v>
+        <v>0.171875</v>
       </c>
       <c r="G47" t="n" s="114">
-        <v>0.0</v>
+        <v>0.5</v>
       </c>
       <c r="H47" t="n" s="115">
         <v>0.0</v>
@@ -5061,19 +5067,19 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="104">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B48" t="n" s="109">
         <v>0.9375</v>
       </c>
       <c r="C48" t="n" s="110">
-        <v>0.0</v>
+        <v>0.0625</v>
       </c>
       <c r="D48" t="n" s="111">
-        <v>0.03125</v>
+        <v>0.0</v>
       </c>
       <c r="E48" t="n" s="112">
-        <v>0.03125</v>
+        <v>0.0</v>
       </c>
       <c r="F48" t="n" s="113">
         <v>0.0</v>
@@ -5087,25 +5093,25 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="104">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B49" t="n" s="109">
-        <v>0.078125</v>
+        <v>0.9375</v>
       </c>
       <c r="C49" t="n" s="110">
-        <v>0.125</v>
+        <v>0.03125</v>
       </c>
       <c r="D49" t="n" s="111">
-        <v>0.046875</v>
+        <v>0.0</v>
       </c>
       <c r="E49" t="n" s="112">
-        <v>0.5</v>
+        <v>0.03125</v>
       </c>
       <c r="F49" t="n" s="113">
-        <v>0.234375</v>
+        <v>0.0</v>
       </c>
       <c r="G49" t="n" s="114">
-        <v>0.015625</v>
+        <v>0.0</v>
       </c>
       <c r="H49" t="n" s="115">
         <v>0.0</v>
@@ -5113,25 +5119,25 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="104">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B50" t="n" s="109">
-        <v>0.078125</v>
+        <v>0.9375</v>
       </c>
       <c r="C50" t="n" s="110">
-        <v>0.234375</v>
+        <v>0.0</v>
       </c>
       <c r="D50" t="n" s="111">
-        <v>0.21875</v>
+        <v>0.03125</v>
       </c>
       <c r="E50" t="n" s="112">
-        <v>0.046875</v>
+        <v>0.03125</v>
       </c>
       <c r="F50" t="n" s="113">
-        <v>0.140625</v>
+        <v>0.0</v>
       </c>
       <c r="G50" t="n" s="114">
-        <v>0.28125</v>
+        <v>0.0</v>
       </c>
       <c r="H50" t="n" s="115">
         <v>0.0</v>
@@ -5139,22 +5145,22 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="104">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B51" t="n" s="109">
-        <v>0.4375</v>
+        <v>0.078125</v>
       </c>
       <c r="C51" t="n" s="110">
-        <v>0.1875</v>
+        <v>0.921875</v>
       </c>
       <c r="D51" t="n" s="111">
-        <v>0.078125</v>
+        <v>0.0</v>
       </c>
       <c r="E51" t="n" s="112">
-        <v>0.203125</v>
+        <v>0.0</v>
       </c>
       <c r="F51" t="n" s="113">
-        <v>0.09375</v>
+        <v>0.0</v>
       </c>
       <c r="G51" t="n" s="114">
         <v>0.0</v>
@@ -5165,25 +5171,25 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="104">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B52" t="n" s="109">
-        <v>0.140625</v>
+        <v>0.078125</v>
       </c>
       <c r="C52" t="n" s="110">
-        <v>0.109375</v>
+        <v>0.125</v>
       </c>
       <c r="D52" t="n" s="111">
-        <v>0.078125</v>
+        <v>0.046875</v>
       </c>
       <c r="E52" t="n" s="112">
-        <v>0.53125</v>
+        <v>0.5</v>
       </c>
       <c r="F52" t="n" s="113">
-        <v>0.140625</v>
+        <v>0.234375</v>
       </c>
       <c r="G52" t="n" s="114">
-        <v>0.0</v>
+        <v>0.015625</v>
       </c>
       <c r="H52" t="n" s="115">
         <v>0.0</v>
@@ -5191,25 +5197,25 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="104">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B53" t="n" s="109">
-        <v>0.171875</v>
+        <v>0.078125</v>
       </c>
       <c r="C53" t="n" s="110">
+        <v>0.234375</v>
+      </c>
+      <c r="D53" t="n" s="111">
+        <v>0.21875</v>
+      </c>
+      <c r="E53" t="n" s="112">
         <v>0.046875</v>
       </c>
-      <c r="D53" t="n" s="111">
-        <v>0.40625</v>
-      </c>
-      <c r="E53" t="n" s="112">
-        <v>0.265625</v>
-      </c>
       <c r="F53" t="n" s="113">
-        <v>0.109375</v>
+        <v>0.140625</v>
       </c>
       <c r="G53" t="n" s="114">
-        <v>0.0</v>
+        <v>0.28125</v>
       </c>
       <c r="H53" t="n" s="115">
         <v>0.0</v>
@@ -5217,27 +5223,105 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="104">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B54" t="n" s="109">
-        <v>0.21875</v>
+        <v>0.4375</v>
       </c>
       <c r="C54" t="n" s="110">
-        <v>0.03125</v>
+        <v>0.1875</v>
       </c>
       <c r="D54" t="n" s="111">
-        <v>0.46875</v>
+        <v>0.078125</v>
       </c>
       <c r="E54" t="n" s="112">
         <v>0.203125</v>
       </c>
       <c r="F54" t="n" s="113">
+        <v>0.09375</v>
+      </c>
+      <c r="G54" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H54" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="104">
+        <v>28</v>
+      </c>
+      <c r="B55" t="n" s="109">
+        <v>0.140625</v>
+      </c>
+      <c r="C55" t="n" s="110">
+        <v>0.109375</v>
+      </c>
+      <c r="D55" t="n" s="111">
         <v>0.078125</v>
       </c>
-      <c r="G54" t="n" s="114">
-        <v>0.0</v>
-      </c>
-      <c r="H54" t="n" s="115">
+      <c r="E55" t="n" s="112">
+        <v>0.53125</v>
+      </c>
+      <c r="F55" t="n" s="113">
+        <v>0.140625</v>
+      </c>
+      <c r="G55" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H55" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="104">
+        <v>29</v>
+      </c>
+      <c r="B56" t="n" s="109">
+        <v>0.171875</v>
+      </c>
+      <c r="C56" t="n" s="110">
+        <v>0.046875</v>
+      </c>
+      <c r="D56" t="n" s="111">
+        <v>0.40625</v>
+      </c>
+      <c r="E56" t="n" s="112">
+        <v>0.265625</v>
+      </c>
+      <c r="F56" t="n" s="113">
+        <v>0.109375</v>
+      </c>
+      <c r="G56" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H56" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="104">
+        <v>30</v>
+      </c>
+      <c r="B57" t="n" s="109">
+        <v>0.21875</v>
+      </c>
+      <c r="C57" t="n" s="110">
+        <v>0.03125</v>
+      </c>
+      <c r="D57" t="n" s="111">
+        <v>0.46875</v>
+      </c>
+      <c r="E57" t="n" s="112">
+        <v>0.203125</v>
+      </c>
+      <c r="F57" t="n" s="113">
+        <v>0.078125</v>
+      </c>
+      <c r="G57" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H57" t="n" s="115">
         <v>0.0</v>
       </c>
     </row>
@@ -5268,7 +5352,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="117">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2">
@@ -5317,31 +5401,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="146">
-        <v>0.8328631686413583</v>
+        <v>0.9218989280245024</v>
       </c>
       <c r="B6" t="n" s="147">
-        <v>0.8329767188264787</v>
+        <v>0.9804678536075453</v>
       </c>
       <c r="C6" t="n" s="148">
-        <v>0.8320662014174415</v>
+        <v>0.833271213723227</v>
       </c>
       <c r="D6" t="n" s="149">
-        <v>0.5549220260616524</v>
+        <v>0.9436065317764761</v>
       </c>
       <c r="E6" t="n" s="150">
-        <v>4.987189288666264</v>
+        <v>50.19765026880516</v>
       </c>
       <c r="F6" t="n" s="151">
-        <v>0.03468858322858678</v>
+        <v>0.004764186643573752</v>
       </c>
       <c r="G6" t="n" s="152">
-        <v>3.7265625</v>
+        <v>0.11458333333333334</v>
       </c>
       <c r="H6" t="n" s="153">
-        <v>0.8770879283897277</v>
+        <v>0.464692536457337</v>
       </c>
       <c r="I6" t="n" s="154">
-        <v>0.5619925817302804</v>
+        <v>0.9629703452613374</v>
       </c>
     </row>
     <row r="7">
@@ -5388,118 +5472,88 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="168">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B11" t="n" s="173">
-        <v>0.8090653830726032</v>
+        <v>0.9771891096394407</v>
       </c>
       <c r="C11" t="n" s="174">
-        <v>0.8081844973488432</v>
+        <v>0.9811359072091674</v>
       </c>
       <c r="D11" t="n" s="175">
-        <v>0.7720266974502644</v>
+        <v>0.9629703452613373</v>
       </c>
       <c r="E11" t="n" s="176">
-        <v>0.584104066945407</v>
+        <v>0.9629703452613374</v>
       </c>
       <c r="F11" t="n" s="177">
-        <v>4.213342958095725</v>
+        <v>52.01076553683887</v>
       </c>
       <c r="G11" t="n" s="178">
-        <v>0.04179570793510703</v>
-      </c>
-      <c r="H11" t="n" s="179">
-        <v>0.020498755894747207</v>
-      </c>
+        <v>0.005165097659531262</v>
+      </c>
+      <c r="H11" s="179"/>
       <c r="I11" t="n" s="180">
-        <v>0.6536480375086979</v>
+        <v>0.9629703452613374</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="168">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B12" t="n" s="173">
-        <v>0.7868651010376843</v>
+        <v>0.7989347536617843</v>
       </c>
       <c r="C12" t="n" s="174">
-        <v>0.7890621795697894</v>
+        <v>0.989554996364481</v>
       </c>
       <c r="D12" t="n" s="175">
-        <v>0.730927920435255</v>
+        <v>0.9793259334294525</v>
       </c>
       <c r="E12" t="n" s="176">
-        <v>0.5549445794656863</v>
+        <v>0.9793259334294524</v>
       </c>
       <c r="F12" t="n" s="177">
-        <v>3.740733539203575</v>
+        <v>94.73955499636497</v>
       </c>
       <c r="G12" t="n" s="178">
-        <v>0.046920378528958036</v>
-      </c>
-      <c r="H12" t="n" s="179">
-        <v>0.013149580162904463</v>
-      </c>
+        <v>0.009249839327878057</v>
+      </c>
+      <c r="H12" s="179"/>
       <c r="I12" t="n" s="180">
-        <v>0.5323765916853714</v>
+        <v>0.9793259334294524</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="168">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B13" t="n" s="173">
-        <v>0.796117769671704</v>
+        <v>0.794701986754967</v>
       </c>
       <c r="C13" t="n" s="174">
-        <v>0.796543364460697</v>
+        <v>0.9409715080670662</v>
       </c>
       <c r="D13" t="n" s="175">
-        <v>0.7387574402272268</v>
+        <v>0.8885233166386386</v>
       </c>
       <c r="E13" t="n" s="176">
-        <v>0.56616380045234</v>
+        <v>0.8885233166386386</v>
       </c>
       <c r="F13" t="n" s="177">
-        <v>3.9150522780901067</v>
+        <v>15.940971508067076</v>
       </c>
       <c r="G13" t="n" s="178">
-        <v>0.044661229385528106</v>
-      </c>
-      <c r="H13" t="n" s="179">
-        <v>0.010526944527258096</v>
-      </c>
+        <v>0.023242939467893638</v>
+      </c>
+      <c r="H13" s="179"/>
       <c r="I13" t="n" s="180">
-        <v>0.5916085717751893</v>
+        <v>0.8885233166386386</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="168">
-        <v>21</v>
-      </c>
-      <c r="B14" t="n" s="173">
-        <v>0.7615846681922197</v>
-      </c>
-      <c r="C14" t="n" s="174">
-        <v>0.760701827055552</v>
-      </c>
-      <c r="D14" t="n" s="175">
-        <v>0.6900682436858168</v>
-      </c>
-      <c r="E14" t="n" s="176">
-        <v>0.5144756573831764</v>
-      </c>
-      <c r="F14" t="n" s="177">
-        <v>3.178886899534105</v>
-      </c>
-      <c r="G14" t="n" s="178">
-        <v>0.05152463732648788</v>
-      </c>
-      <c r="H14" t="n" s="179">
-        <v>0.007650681164565369</v>
-      </c>
-      <c r="I14" t="n" s="180">
-        <v>0.5323765916853714</v>
+      <c r="A14" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -5508,283 +5562,202 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s">
-        <v>1</v>
+      <c r="A16" t="s" s="184">
+        <v>31</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="184">
-        <v>30</v>
+      <c r="A17"/>
+      <c r="B17" t="s" s="198">
+        <v>32</v>
+      </c>
+      <c r="C17" t="s" s="198">
+        <v>33</v>
+      </c>
+      <c r="D17" t="s" s="198">
+        <v>34</v>
+      </c>
+      <c r="E17" t="s" s="198">
+        <v>35</v>
+      </c>
+      <c r="F17" t="s" s="198">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="198">
+        <v>9</v>
+      </c>
+      <c r="H17" t="s" s="198">
+        <v>10</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18"/>
-      <c r="B18" t="s" s="198">
-        <v>31</v>
-      </c>
-      <c r="C18" t="s" s="198">
-        <v>32</v>
-      </c>
-      <c r="D18" t="s" s="198">
-        <v>33</v>
-      </c>
-      <c r="E18" t="s" s="198">
-        <v>34</v>
-      </c>
-      <c r="F18" t="s" s="198">
-        <v>35</v>
-      </c>
-      <c r="G18" t="s" s="198">
-        <v>9</v>
-      </c>
-      <c r="H18" t="s" s="198">
-        <v>10</v>
+      <c r="A18" t="s" s="194">
+        <v>21</v>
+      </c>
+      <c r="B18" t="n" s="199">
+        <v>64.0</v>
+      </c>
+      <c r="C18" t="n" s="200">
+        <v>0.9625451203600501</v>
+      </c>
+      <c r="D18" t="n" s="201">
+        <v>0.9744426278341576</v>
+      </c>
+      <c r="E18" t="n" s="202">
+        <v>0.9765842863452753</v>
+      </c>
+      <c r="F18" t="n" s="203">
+        <v>0.9455367444469506</v>
+      </c>
+      <c r="G18" t="n" s="204">
+        <v>0.0625</v>
+      </c>
+      <c r="H18" t="n" s="205">
+        <v>0.2439750182371333</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="194">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B19" t="n" s="199">
         <v>64.0</v>
       </c>
       <c r="C19" t="n" s="200">
-        <v>0.7916872931981599</v>
+        <v>0.9796428784303437</v>
       </c>
       <c r="D19" t="n" s="201">
-        <v>0.7893905883869988</v>
+        <v>0.9688852986565752</v>
       </c>
       <c r="E19" t="n" s="202">
-        <v>0.6848630622154731</v>
+        <v>0.9869819594096871</v>
       </c>
       <c r="F19" t="n" s="203">
-        <v>0.617124279424554</v>
+        <v>0.9459793898902521</v>
       </c>
       <c r="G19" t="n" s="204">
-        <v>3.3125</v>
+        <v>0.125</v>
       </c>
       <c r="H19" t="n" s="205">
-        <v>1.096531327587567</v>
+        <v>0.549169647365276</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="194">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B20" t="n" s="199">
         <v>64.0</v>
       </c>
       <c r="C20" t="n" s="200">
-        <v>0.8195080778157199</v>
+        <v>0.9974902216479637</v>
       </c>
       <c r="D20" t="n" s="201">
-        <v>0.8161848380542689</v>
+        <v>0.999738364074068</v>
       </c>
       <c r="E20" t="n" s="202">
-        <v>0.7475518706177242</v>
+        <v>0.7229732758662951</v>
       </c>
       <c r="F20" t="n" s="203">
-        <v>0.6660877678381952</v>
+        <v>0.991836736969834</v>
       </c>
       <c r="G20" t="n" s="204">
-        <v>4.09375</v>
+        <v>0.15625</v>
       </c>
       <c r="H20" t="n" s="205">
-        <v>1.0796641159057772</v>
+        <v>0.6228136361680157</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="194">
-        <v>20</v>
-      </c>
-      <c r="B21" t="n" s="199">
-        <v>64.0</v>
-      </c>
-      <c r="C21" t="n" s="200">
-        <v>0.7996295091072452</v>
-      </c>
-      <c r="D21" t="n" s="201">
-        <v>0.8058756510907552</v>
-      </c>
-      <c r="E21" t="n" s="202">
-        <v>0.7323543568568054</v>
-      </c>
-      <c r="F21" t="n" s="203">
-        <v>0.6458799369398132</v>
-      </c>
-      <c r="G21" t="n" s="204">
-        <v>3.46875</v>
-      </c>
-      <c r="H21" t="n" s="205">
-        <v>1.0230478894592296</v>
+      <c r="A21" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s" s="194">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="209">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="223">
+        <v>38</v>
+      </c>
+      <c r="C24" t="s" s="223">
+        <v>39</v>
+      </c>
+      <c r="D24" t="s" s="223">
+        <v>40</v>
+      </c>
+      <c r="E24" t="s" s="223">
+        <v>41</v>
+      </c>
+      <c r="F24" t="s" s="223">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="219">
         <v>21</v>
       </c>
-      <c r="B22" t="n" s="199">
-        <v>64.0</v>
-      </c>
-      <c r="C22" t="n" s="200">
-        <v>0.8538115051772173</v>
-      </c>
-      <c r="D22" t="n" s="201">
-        <v>0.853371170728949</v>
-      </c>
-      <c r="E22" t="n" s="202">
-        <v>0.813325261086658</v>
-      </c>
-      <c r="F22" t="n" s="203">
-        <v>0.7204941284526006</v>
-      </c>
-      <c r="G22" t="n" s="204">
-        <v>4.03125</v>
-      </c>
-      <c r="H22" t="n" s="205">
-        <v>1.0978875820670997</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="209">
-        <v>36</v>
+      <c r="B25" t="n" s="224">
+        <v>0.9375</v>
+      </c>
+      <c r="C25" t="n" s="225">
+        <v>0.0625</v>
+      </c>
+      <c r="D25" t="n" s="226">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="227">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="228">
+        <v>0.0</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26"/>
-      <c r="B26" t="s" s="223">
-        <v>37</v>
-      </c>
-      <c r="C26" t="s" s="223">
-        <v>38</v>
-      </c>
-      <c r="D26" t="s" s="223">
-        <v>39</v>
-      </c>
-      <c r="E26" t="s" s="223">
-        <v>40</v>
-      </c>
-      <c r="F26" t="s" s="223">
-        <v>41</v>
-      </c>
-      <c r="G26" t="s" s="223">
-        <v>42</v>
-      </c>
-      <c r="H26" t="s" s="223">
-        <v>43</v>
+      <c r="A26" t="s" s="219">
+        <v>22</v>
+      </c>
+      <c r="B26" t="n" s="224">
+        <v>0.9375</v>
+      </c>
+      <c r="C26" t="n" s="225">
+        <v>0.03125</v>
+      </c>
+      <c r="D26" t="n" s="226">
+        <v>0.0</v>
+      </c>
+      <c r="E26" t="n" s="227">
+        <v>0.03125</v>
+      </c>
+      <c r="F26" t="n" s="228">
+        <v>0.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="219">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B27" t="n" s="224">
-        <v>0.015625</v>
+        <v>0.9375</v>
       </c>
       <c r="C27" t="n" s="225">
-        <v>0.09375</v>
+        <v>0.0</v>
       </c>
       <c r="D27" t="n" s="226">
-        <v>0.015625</v>
+        <v>0.03125</v>
       </c>
       <c r="E27" t="n" s="227">
-        <v>0.40625</v>
+        <v>0.03125</v>
       </c>
       <c r="F27" t="n" s="228">
-        <v>0.375</v>
-      </c>
-      <c r="G27" t="n" s="229">
-        <v>0.09375</v>
-      </c>
-      <c r="H27" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="219">
-        <v>19</v>
-      </c>
-      <c r="B28" t="n" s="224">
-        <v>0.015625</v>
-      </c>
-      <c r="C28" t="n" s="225">
-        <v>0.0</v>
-      </c>
-      <c r="D28" t="n" s="226">
-        <v>0.03125</v>
-      </c>
-      <c r="E28" t="n" s="227">
-        <v>0.28125</v>
-      </c>
-      <c r="F28" t="n" s="228">
-        <v>0.171875</v>
-      </c>
-      <c r="G28" t="n" s="229">
-        <v>0.5</v>
-      </c>
-      <c r="H28" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="219">
-        <v>20</v>
-      </c>
-      <c r="B29" t="n" s="224">
-        <v>0.0</v>
-      </c>
-      <c r="C29" t="n" s="225">
-        <v>0.09375</v>
-      </c>
-      <c r="D29" t="n" s="226">
-        <v>0.015625</v>
-      </c>
-      <c r="E29" t="n" s="227">
-        <v>0.3125</v>
-      </c>
-      <c r="F29" t="n" s="228">
-        <v>0.484375</v>
-      </c>
-      <c r="G29" t="n" s="229">
-        <v>0.09375</v>
-      </c>
-      <c r="H29" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s" s="219">
-        <v>21</v>
-      </c>
-      <c r="B30" t="n" s="224">
-        <v>0.0</v>
-      </c>
-      <c r="C30" t="n" s="225">
-        <v>0.0</v>
-      </c>
-      <c r="D30" t="n" s="226">
-        <v>0.09375</v>
-      </c>
-      <c r="E30" t="n" s="227">
-        <v>0.296875</v>
-      </c>
-      <c r="F30" t="n" s="228">
-        <v>0.09375</v>
-      </c>
-      <c r="G30" t="n" s="229">
-        <v>0.515625</v>
-      </c>
-      <c r="H30" t="n" s="230">
         <v>0.0</v>
       </c>
     </row>
@@ -5814,8 +5787,8 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="232">
-        <v>45</v>
+      <c r="A1" t="s" s="230">
+        <v>46</v>
       </c>
     </row>
     <row r="2">
@@ -5829,66 +5802,66 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="246">
+      <c r="A4" t="s" s="244">
         <v>2</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="260">
+      <c r="A5" t="s" s="258">
         <v>3</v>
       </c>
-      <c r="B5" t="s" s="260">
+      <c r="B5" t="s" s="258">
         <v>4</v>
       </c>
-      <c r="C5" t="s" s="260">
+      <c r="C5" t="s" s="258">
         <v>5</v>
       </c>
-      <c r="D5" t="s" s="260">
+      <c r="D5" t="s" s="258">
         <v>6</v>
       </c>
-      <c r="E5" t="s" s="260">
+      <c r="E5" t="s" s="258">
         <v>7</v>
       </c>
-      <c r="F5" t="s" s="260">
+      <c r="F5" t="s" s="258">
         <v>8</v>
       </c>
-      <c r="G5" t="s" s="260">
+      <c r="G5" t="s" s="258">
         <v>9</v>
       </c>
-      <c r="H5" t="s" s="260">
+      <c r="H5" t="s" s="258">
         <v>10</v>
       </c>
-      <c r="I5" t="s" s="260">
+      <c r="I5" t="s" s="258">
         <v>11</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n" s="261">
-        <v>0.790741401108698</v>
-      </c>
-      <c r="B6" t="n" s="262">
-        <v>0.8224868959352867</v>
-      </c>
-      <c r="C6" t="n" s="263">
-        <v>0.6984948983549353</v>
-      </c>
-      <c r="D6" t="n" s="264">
-        <v>0.6984948983549355</v>
-      </c>
-      <c r="E6" t="n" s="265">
-        <v>4.633386928074022</v>
-      </c>
-      <c r="F6" t="n" s="266">
-        <v>0.046323606616670114</v>
-      </c>
-      <c r="G6" t="n" s="267">
-        <v>2.7578125</v>
-      </c>
-      <c r="H6" t="n" s="268">
-        <v>1.382980986395026</v>
-      </c>
-      <c r="I6" t="n" s="269">
-        <v>0.6984948983549355</v>
+      <c r="A6" t="n" s="259">
+        <v>0.6803472542685741</v>
+      </c>
+      <c r="B6" t="n" s="260">
+        <v>0.8213039599176183</v>
+      </c>
+      <c r="C6" t="n" s="261">
+        <v>0.780664300756591</v>
+      </c>
+      <c r="D6" t="n" s="262">
+        <v>0.6050602268269655</v>
+      </c>
+      <c r="E6" t="n" s="263">
+        <v>4.5960949080851705</v>
+      </c>
+      <c r="F6" t="n" s="264">
+        <v>0.03632164156124204</v>
+      </c>
+      <c r="G6" t="n" s="265">
+        <v>2.1458333333333335</v>
+      </c>
+      <c r="H6" t="n" s="266">
+        <v>0.9774801134212597</v>
+      </c>
+      <c r="I6" t="n" s="267">
+        <v>0.6551293565373668</v>
       </c>
     </row>
     <row r="7">
@@ -5902,86 +5875,116 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="273">
+      <c r="A9" t="s" s="271">
         <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10"/>
-      <c r="B10" t="s" s="287">
+      <c r="B10" t="s" s="285">
         <v>3</v>
       </c>
-      <c r="C10" t="s" s="287">
+      <c r="C10" t="s" s="285">
         <v>4</v>
       </c>
-      <c r="D10" t="s" s="287">
+      <c r="D10" t="s" s="285">
         <v>13</v>
       </c>
-      <c r="E10" t="s" s="287">
+      <c r="E10" t="s" s="285">
         <v>6</v>
       </c>
-      <c r="F10" t="s" s="287">
+      <c r="F10" t="s" s="285">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="287">
+      <c r="G10" t="s" s="285">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="287">
+      <c r="H10" t="s" s="285">
         <v>16</v>
       </c>
-      <c r="I10" t="s" s="287">
+      <c r="I10" t="s" s="285">
         <v>17</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="283">
+      <c r="A11" t="s" s="281">
         <v>24</v>
       </c>
-      <c r="B11" t="n" s="288">
-        <v>0.6984948983549354</v>
-      </c>
-      <c r="C11" t="n" s="289">
-        <v>0.6984948983549354</v>
-      </c>
-      <c r="D11" t="n" s="290">
-        <v>0.4878951230278712</v>
-      </c>
-      <c r="E11" t="n" s="291">
-        <v>0.6984948983549354</v>
-      </c>
-      <c r="F11" s="292"/>
-      <c r="G11" s="293"/>
-      <c r="H11" t="n" s="294">
-        <v>0.6984948983549354</v>
-      </c>
-      <c r="I11" t="n" s="295">
-        <v>0.6984948983549354</v>
+      <c r="B11" t="n" s="286">
+        <v>0.790741401108698</v>
+      </c>
+      <c r="C11" t="n" s="287">
+        <v>0.8224868959352867</v>
+      </c>
+      <c r="D11" t="n" s="288">
+        <v>0.6984948983549353</v>
+      </c>
+      <c r="E11" t="n" s="289">
+        <v>0.6984948983549355</v>
+      </c>
+      <c r="F11" t="n" s="290">
+        <v>4.633386928074022</v>
+      </c>
+      <c r="G11" t="n" s="291">
+        <v>0.046323606616670114</v>
+      </c>
+      <c r="H11" s="292"/>
+      <c r="I11" t="n" s="293">
+        <v>0.6984948983549355</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="283">
+      <c r="A12" t="s" s="281">
         <v>25</v>
       </c>
-      <c r="B12" t="n" s="288">
-        <v>0.4878951230278712</v>
-      </c>
-      <c r="C12" t="n" s="289">
-        <v>0.6984948983549354</v>
-      </c>
-      <c r="D12" s="290"/>
-      <c r="E12" s="291"/>
-      <c r="F12" s="292"/>
-      <c r="G12" s="293"/>
-      <c r="H12" t="n" s="294">
-        <v>0.4878951230278712</v>
-      </c>
-      <c r="I12" t="n" s="295">
-        <v>0.6984948983549354</v>
+      <c r="B12" t="n" s="286">
+        <v>0.24252333265208792</v>
+      </c>
+      <c r="C12" t="n" s="287">
+        <v>0.6315957666878544</v>
+      </c>
+      <c r="D12" t="n" s="288">
+        <v>0.4615564255885938</v>
+      </c>
+      <c r="E12" t="n" s="289">
+        <v>0.461556425588594</v>
+      </c>
+      <c r="F12" t="n" s="290">
+        <v>1.7144096337044772</v>
+      </c>
+      <c r="G12" t="n" s="291">
+        <v>0.05071089337431924</v>
+      </c>
+      <c r="H12" s="292"/>
+      <c r="I12" t="n" s="293">
+        <v>0.46155642558859394</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>1</v>
+      <c r="A13" t="s" s="281">
+        <v>26</v>
+      </c>
+      <c r="B13" t="n" s="286">
+        <v>0.4325259515570936</v>
+      </c>
+      <c r="C13" t="n" s="287">
+        <v>0.791635232557216</v>
+      </c>
+      <c r="D13" t="n" s="288">
+        <v>0.6551293565373667</v>
+      </c>
+      <c r="E13" t="n" s="289">
+        <v>0.6551293565373668</v>
+      </c>
+      <c r="F13" t="n" s="290">
+        <v>3.7992758673780838</v>
+      </c>
+      <c r="G13" t="n" s="291">
+        <v>0.046969096883486286</v>
+      </c>
+      <c r="H13" s="292"/>
+      <c r="I13" t="n" s="293">
+        <v>0.6551293565373668</v>
       </c>
     </row>
     <row r="14">
@@ -5990,174 +5993,231 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="299">
-        <v>30</v>
+      <c r="A15" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16"/>
-      <c r="B16" t="s" s="313">
+      <c r="A16" t="s" s="297">
         <v>31</v>
       </c>
-      <c r="C16" t="s" s="313">
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="311">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="313">
+      <c r="C17" t="s" s="311">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="313">
+      <c r="D17" t="s" s="311">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="313">
+      <c r="E17" t="s" s="311">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="313">
+      <c r="F17" t="s" s="311">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="311">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="313">
+      <c r="H17" t="s" s="311">
         <v>10</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="s" s="309">
+    <row r="18">
+      <c r="A18" t="s" s="307">
         <v>24</v>
       </c>
-      <c r="B17" t="n" s="314">
+      <c r="B18" t="n" s="312">
         <v>64.0</v>
       </c>
-      <c r="C17" t="n" s="315">
-        <v>0.8892442550340928</v>
-      </c>
-      <c r="D17" t="n" s="316">
-        <v>0.9215462273686914</v>
-      </c>
-      <c r="E17" t="n" s="317">
-        <v>0.7701915415605416</v>
-      </c>
-      <c r="F17" t="n" s="318">
-        <v>0.6984948983549353</v>
-      </c>
-      <c r="G17" t="n" s="319">
+      <c r="C18" t="n" s="313">
+        <v>0.6441199720181322</v>
+      </c>
+      <c r="D18" t="n" s="314">
+        <v>0.8220302384288367</v>
+      </c>
+      <c r="E18" t="n" s="315">
+        <v>0.679490921831045</v>
+      </c>
+      <c r="F18" t="n" s="316">
+        <v>0.5850961427112668</v>
+      </c>
+      <c r="G18" t="n" s="317">
+        <v>0.921875</v>
+      </c>
+      <c r="H18" t="n" s="318">
+        <v>0.27048970875004197</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="307">
+        <v>25</v>
+      </c>
+      <c r="B19" t="n" s="312">
+        <v>64.0</v>
+      </c>
+      <c r="C19" t="n" s="313">
+        <v>0.8991901750173462</v>
+      </c>
+      <c r="D19" t="n" s="314">
+        <v>0.9140470086579333</v>
+      </c>
+      <c r="E19" t="n" s="315">
+        <v>0.8712586825397364</v>
+      </c>
+      <c r="F19" t="n" s="316">
+        <v>0.7401188164561142</v>
+      </c>
+      <c r="G19" t="n" s="317">
         <v>2.734375</v>
       </c>
-      <c r="H17" t="n" s="320">
+      <c r="H19" t="n" s="318">
         <v>1.2246436151497235</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="s" s="309">
+    <row r="20">
+      <c r="A20" t="s" s="307">
+        <v>26</v>
+      </c>
+      <c r="B20" t="n" s="312">
+        <v>64.0</v>
+      </c>
+      <c r="C20" t="n" s="313">
+        <v>0.937206145853337</v>
+      </c>
+      <c r="D20" t="n" s="314">
+        <v>0.8388715603581064</v>
+      </c>
+      <c r="E20" t="n" s="315">
+        <v>0.7243518033952014</v>
+      </c>
+      <c r="F20" t="n" s="316">
+        <v>0.6919437039629618</v>
+      </c>
+      <c r="G20" t="n" s="317">
+        <v>2.78125</v>
+      </c>
+      <c r="H20" t="n" s="318">
+        <v>1.7680475286292685</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="322">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="336">
+        <v>38</v>
+      </c>
+      <c r="C24" t="s" s="336">
+        <v>39</v>
+      </c>
+      <c r="D24" t="s" s="336">
+        <v>40</v>
+      </c>
+      <c r="E24" t="s" s="336">
+        <v>41</v>
+      </c>
+      <c r="F24" t="s" s="336">
+        <v>42</v>
+      </c>
+      <c r="G24" t="s" s="336">
+        <v>43</v>
+      </c>
+      <c r="H24" t="s" s="336">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="332">
+        <v>24</v>
+      </c>
+      <c r="B25" t="n" s="337">
+        <v>0.078125</v>
+      </c>
+      <c r="C25" t="n" s="338">
+        <v>0.921875</v>
+      </c>
+      <c r="D25" t="n" s="339">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="340">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="341">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="342">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="343">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="332">
         <v>25</v>
       </c>
-      <c r="B18" t="n" s="314">
-        <v>64.0</v>
-      </c>
-      <c r="C18" t="n" s="315">
-        <v>0.9484782769692208</v>
-      </c>
-      <c r="D18" t="n" s="316">
-        <v>0.9215462273686914</v>
-      </c>
-      <c r="E18" t="n" s="317">
-        <v>0.7701915415605416</v>
-      </c>
-      <c r="F18" t="n" s="318">
-        <v>0.6984948983549355</v>
-      </c>
-      <c r="G18" t="n" s="319">
-        <v>2.78125</v>
-      </c>
-      <c r="H18" t="n" s="320">
-        <v>1.7680475286292685</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s" s="324">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22"/>
-      <c r="B22" t="s" s="338">
-        <v>37</v>
-      </c>
-      <c r="C22" t="s" s="338">
-        <v>38</v>
-      </c>
-      <c r="D22" t="s" s="338">
-        <v>39</v>
-      </c>
-      <c r="E22" t="s" s="338">
-        <v>40</v>
-      </c>
-      <c r="F22" t="s" s="338">
-        <v>41</v>
-      </c>
-      <c r="G22" t="s" s="338">
-        <v>42</v>
-      </c>
-      <c r="H22" t="s" s="338">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="334">
-        <v>24</v>
-      </c>
-      <c r="B23" t="n" s="339">
+      <c r="B26" t="n" s="337">
         <v>0.078125</v>
       </c>
-      <c r="C23" t="n" s="340">
+      <c r="C26" t="n" s="338">
         <v>0.125</v>
       </c>
-      <c r="D23" t="n" s="341">
+      <c r="D26" t="n" s="339">
         <v>0.046875</v>
       </c>
-      <c r="E23" t="n" s="342">
+      <c r="E26" t="n" s="340">
         <v>0.5</v>
       </c>
-      <c r="F23" t="n" s="343">
+      <c r="F26" t="n" s="341">
         <v>0.234375</v>
       </c>
-      <c r="G23" t="n" s="344">
+      <c r="G26" t="n" s="342">
         <v>0.015625</v>
       </c>
-      <c r="H23" t="n" s="345">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="334">
-        <v>25</v>
-      </c>
-      <c r="B24" t="n" s="339">
+      <c r="H26" t="n" s="343">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="332">
+        <v>26</v>
+      </c>
+      <c r="B27" t="n" s="337">
         <v>0.078125</v>
       </c>
-      <c r="C24" t="n" s="340">
+      <c r="C27" t="n" s="338">
         <v>0.234375</v>
       </c>
-      <c r="D24" t="n" s="341">
+      <c r="D27" t="n" s="339">
         <v>0.21875</v>
       </c>
-      <c r="E24" t="n" s="342">
+      <c r="E27" t="n" s="340">
         <v>0.046875</v>
       </c>
-      <c r="F24" t="n" s="343">
+      <c r="F27" t="n" s="341">
         <v>0.140625</v>
       </c>
-      <c r="G24" t="n" s="344">
+      <c r="G27" t="n" s="342">
         <v>0.28125</v>
       </c>
-      <c r="H24" t="n" s="345">
+      <c r="H27" t="n" s="343">
         <v>0.0</v>
       </c>
     </row>
@@ -6187,8 +6247,8 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="347">
-        <v>46</v>
+      <c r="A1" t="s" s="345">
+        <v>47</v>
       </c>
     </row>
     <row r="2">
@@ -6202,66 +6262,66 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="361">
+      <c r="A4" t="s" s="359">
         <v>2</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="375">
+      <c r="A5" t="s" s="373">
         <v>3</v>
       </c>
-      <c r="B5" t="s" s="375">
+      <c r="B5" t="s" s="373">
         <v>4</v>
       </c>
-      <c r="C5" t="s" s="375">
+      <c r="C5" t="s" s="373">
         <v>5</v>
       </c>
-      <c r="D5" t="s" s="375">
+      <c r="D5" t="s" s="373">
         <v>6</v>
       </c>
-      <c r="E5" t="s" s="375">
+      <c r="E5" t="s" s="373">
         <v>7</v>
       </c>
-      <c r="F5" t="s" s="375">
+      <c r="F5" t="s" s="373">
         <v>8</v>
       </c>
-      <c r="G5" t="s" s="375">
+      <c r="G5" t="s" s="373">
         <v>9</v>
       </c>
-      <c r="H5" t="s" s="375">
+      <c r="H5" t="s" s="373">
         <v>10</v>
       </c>
-      <c r="I5" t="s" s="375">
+      <c r="I5" t="s" s="373">
         <v>11</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n" s="376">
-        <v>0.9022329226266346</v>
-      </c>
-      <c r="B6" t="n" s="377">
-        <v>0.9022437825053702</v>
-      </c>
-      <c r="C6" t="n" s="378">
-        <v>0.8218981301372439</v>
-      </c>
-      <c r="D6" t="n" s="379">
-        <v>0.8218981301372441</v>
-      </c>
-      <c r="E6" t="n" s="380">
-        <v>9.229528367900835</v>
-      </c>
-      <c r="F6" t="n" s="381">
-        <v>0.02444011764320252</v>
-      </c>
-      <c r="G6" t="n" s="382">
-        <v>1.9921875</v>
-      </c>
-      <c r="H6" t="n" s="383">
-        <v>1.1460497631097044</v>
-      </c>
-      <c r="I6" t="n" s="384">
-        <v>0.8218981301372441</v>
+      <c r="A6" t="n" s="374">
+        <v>0.6104769544024188</v>
+      </c>
+      <c r="B6" t="n" s="375">
+        <v>0.7390159159587026</v>
+      </c>
+      <c r="C6" t="n" s="376">
+        <v>0.6677878345978379</v>
+      </c>
+      <c r="D6" t="n" s="377">
+        <v>0.4855659477357726</v>
+      </c>
+      <c r="E6" t="n" s="378">
+        <v>2.8316512812396755</v>
+      </c>
+      <c r="F6" t="n" s="379">
+        <v>0.04680414261176347</v>
+      </c>
+      <c r="G6" t="n" s="380">
+        <v>2.796875</v>
+      </c>
+      <c r="H6" t="n" s="381">
+        <v>0.6682974432564734</v>
+      </c>
+      <c r="I6" t="n" s="382">
+        <v>0.4814842525401083</v>
       </c>
     </row>
     <row r="7">
@@ -6275,86 +6335,116 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="388">
+      <c r="A9" t="s" s="386">
         <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10"/>
-      <c r="B10" t="s" s="402">
+      <c r="B10" t="s" s="400">
         <v>3</v>
       </c>
-      <c r="C10" t="s" s="402">
+      <c r="C10" t="s" s="400">
         <v>4</v>
       </c>
-      <c r="D10" t="s" s="402">
+      <c r="D10" t="s" s="400">
         <v>13</v>
       </c>
-      <c r="E10" t="s" s="402">
+      <c r="E10" t="s" s="400">
         <v>6</v>
       </c>
-      <c r="F10" t="s" s="402">
+      <c r="F10" t="s" s="400">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="402">
+      <c r="G10" t="s" s="400">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="402">
+      <c r="H10" t="s" s="400">
         <v>16</v>
       </c>
-      <c r="I10" t="s" s="402">
+      <c r="I10" t="s" s="400">
         <v>17</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="398">
-        <v>28</v>
-      </c>
-      <c r="B11" t="n" s="403">
-        <v>0.821898130137244</v>
-      </c>
-      <c r="C11" t="n" s="404">
-        <v>0.821898130137244</v>
-      </c>
-      <c r="D11" t="n" s="405">
-        <v>0.6755165363230979</v>
-      </c>
-      <c r="E11" t="n" s="406">
-        <v>0.821898130137244</v>
-      </c>
-      <c r="F11" s="407"/>
-      <c r="G11" s="408"/>
-      <c r="H11" t="n" s="409">
-        <v>0.821898130137244</v>
-      </c>
-      <c r="I11" t="n" s="410">
-        <v>0.821898130137244</v>
+      <c r="A11" t="s" s="396">
+        <v>18</v>
+      </c>
+      <c r="B11" t="n" s="401">
+        <v>0.7433535140826535</v>
+      </c>
+      <c r="C11" t="n" s="402">
+        <v>0.7434096325773654</v>
+      </c>
+      <c r="D11" t="n" s="403">
+        <v>0.5916085717751893</v>
+      </c>
+      <c r="E11" t="n" s="404">
+        <v>0.5916085717751893</v>
+      </c>
+      <c r="F11" t="n" s="405">
+        <v>2.897262434457961</v>
+      </c>
+      <c r="G11" t="n" s="406">
+        <v>0.06414976338207458</v>
+      </c>
+      <c r="H11" s="407"/>
+      <c r="I11" t="n" s="408">
+        <v>0.5916085717751893</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="398">
-        <v>29</v>
-      </c>
-      <c r="B12" t="n" s="403">
-        <v>0.6755165363230979</v>
-      </c>
-      <c r="C12" t="n" s="404">
-        <v>0.821898130137244</v>
-      </c>
-      <c r="D12" s="405"/>
-      <c r="E12" s="406"/>
-      <c r="F12" s="407"/>
-      <c r="G12" s="408"/>
-      <c r="H12" t="n" s="409">
-        <v>0.6755165363230979</v>
-      </c>
-      <c r="I12" t="n" s="410">
-        <v>0.821898130137244</v>
+      <c r="A12" t="s" s="396">
+        <v>19</v>
+      </c>
+      <c r="B12" t="n" s="401">
+        <v>0.19822205409494975</v>
+      </c>
+      <c r="C12" t="n" s="402">
+        <v>0.6500025251224506</v>
+      </c>
+      <c r="D12" t="n" s="403">
+        <v>0.4814842525401082</v>
+      </c>
+      <c r="E12" t="n" s="404">
+        <v>0.4814842525401084</v>
+      </c>
+      <c r="F12" t="n" s="405">
+        <v>1.8571634705360702</v>
+      </c>
+      <c r="G12" t="n" s="406">
+        <v>0.04038652120592951</v>
+      </c>
+      <c r="H12" s="407"/>
+      <c r="I12" t="n" s="408">
+        <v>0.4814842525401083</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>1</v>
+      <c r="A13" t="s" s="396">
+        <v>20</v>
+      </c>
+      <c r="B13" t="n" s="401">
+        <v>0.1589503280224931</v>
+      </c>
+      <c r="C13" t="n" s="402">
+        <v>0.5545007623623799</v>
+      </c>
+      <c r="D13" t="n" s="403">
+        <v>0.38360501889202003</v>
+      </c>
+      <c r="E13" t="n" s="404">
+        <v>0.38360501889202014</v>
+      </c>
+      <c r="F13" t="n" s="405">
+        <v>1.24467275253437</v>
+      </c>
+      <c r="G13" t="n" s="406">
+        <v>0.0438665616711121</v>
+      </c>
+      <c r="H13" s="407"/>
+      <c r="I13" t="n" s="408">
+        <v>0.3836050188920202</v>
       </c>
     </row>
     <row r="14">
@@ -6363,165 +6453,231 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="414">
-        <v>30</v>
+      <c r="A15" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16"/>
-      <c r="B16" t="s" s="428">
+      <c r="A16" t="s" s="412">
         <v>31</v>
       </c>
-      <c r="C16" t="s" s="428">
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="426">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="428">
+      <c r="C17" t="s" s="426">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="428">
+      <c r="D17" t="s" s="426">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="428">
+      <c r="E17" t="s" s="426">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="428">
+      <c r="F17" t="s" s="426">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="426">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="428">
+      <c r="H17" t="s" s="426">
         <v>10</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="s" s="424">
-        <v>28</v>
-      </c>
-      <c r="B17" t="n" s="429">
+    <row r="18">
+      <c r="A18" t="s" s="422">
+        <v>18</v>
+      </c>
+      <c r="B18" t="n" s="427">
         <v>64.0</v>
       </c>
-      <c r="C17" t="n" s="430">
-        <v>0.954744956117068</v>
-      </c>
-      <c r="D17" t="n" s="431">
-        <v>0.9544365170448069</v>
-      </c>
-      <c r="E17" t="n" s="432">
-        <v>0.8652787604178038</v>
-      </c>
-      <c r="F17" t="n" s="433">
-        <v>0.8218981301372441</v>
-      </c>
-      <c r="G17" t="n" s="434">
-        <v>2.09375</v>
-      </c>
-      <c r="H17" t="n" s="435">
-        <v>1.2047360245667467</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s" s="424">
-        <v>29</v>
-      </c>
-      <c r="B18" t="n" s="429">
+      <c r="C18" t="n" s="428">
+        <v>0.5314381099950287</v>
+      </c>
+      <c r="D18" t="n" s="429">
+        <v>0.766974904140738</v>
+      </c>
+      <c r="E18" t="n" s="430">
+        <v>0.5595461516908559</v>
+      </c>
+      <c r="F18" t="n" s="431">
+        <v>0.48444382499581956</v>
+      </c>
+      <c r="G18" t="n" s="432">
+        <v>0.984375</v>
+      </c>
+      <c r="H18" t="n" s="433">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="422">
+        <v>19</v>
+      </c>
+      <c r="B19" t="n" s="427">
         <v>64.0</v>
       </c>
-      <c r="C18" t="n" s="430">
-        <v>0.9541270549464198</v>
-      </c>
-      <c r="D18" t="n" s="431">
-        <v>0.9544365170448069</v>
-      </c>
-      <c r="E18" t="n" s="432">
-        <v>0.8652787604178038</v>
-      </c>
-      <c r="F18" t="n" s="433">
-        <v>0.8218981301372439</v>
-      </c>
-      <c r="G18" t="n" s="434">
-        <v>1.890625</v>
-      </c>
-      <c r="H18" t="n" s="435">
-        <v>1.1967838846954226</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
+      <c r="C19" t="n" s="428">
+        <v>0.8894345467230623</v>
+      </c>
+      <c r="D19" t="n" s="429">
+        <v>0.8122609880202697</v>
+      </c>
+      <c r="E19" t="n" s="430">
+        <v>0.6732698770477531</v>
+      </c>
+      <c r="F19" t="n" s="431">
+        <v>0.5996748103289823</v>
+      </c>
+      <c r="G19" t="n" s="432">
+        <v>3.3125</v>
+      </c>
+      <c r="H19" t="n" s="433">
+        <v>1.096531327587567</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="422">
+        <v>20</v>
+      </c>
+      <c r="B20" t="n" s="427">
+        <v>64.0</v>
+      </c>
+      <c r="C20" t="n" s="428">
+        <v>0.8921012632632616</v>
+      </c>
+      <c r="D20" t="n" s="429">
+        <v>0.8525115631506319</v>
+      </c>
+      <c r="E20" t="n" s="430">
+        <v>0.754366323374811</v>
+      </c>
+      <c r="F20" t="n" s="431">
+        <v>0.6162824222776883</v>
+      </c>
+      <c r="G20" t="n" s="432">
+        <v>4.09375</v>
+      </c>
+      <c r="H20" t="n" s="433">
+        <v>1.0796641159057772</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s">
+    <row r="22">
+      <c r="A22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="s" s="439">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22"/>
-      <c r="B22" t="s" s="453">
+    <row r="23">
+      <c r="A23" t="s" s="437">
         <v>37</v>
       </c>
-      <c r="C22" t="s" s="453">
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="451">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="453">
+      <c r="C24" t="s" s="451">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="453">
+      <c r="D24" t="s" s="451">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="453">
+      <c r="E24" t="s" s="451">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="453">
+      <c r="F24" t="s" s="451">
+        <v>42</v>
+      </c>
+      <c r="G24" t="s" s="451">
         <v>43</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="449">
-        <v>28</v>
-      </c>
-      <c r="B23" t="n" s="454">
+      <c r="H24" t="s" s="451">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="447">
+        <v>18</v>
+      </c>
+      <c r="B25" t="n" s="452">
+        <v>0.015625</v>
+      </c>
+      <c r="C25" t="n" s="453">
+        <v>0.984375</v>
+      </c>
+      <c r="D25" t="n" s="454">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="455">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="456">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="457">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="458">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="447">
+        <v>19</v>
+      </c>
+      <c r="B26" t="n" s="452">
+        <v>0.015625</v>
+      </c>
+      <c r="C26" t="n" s="453">
+        <v>0.09375</v>
+      </c>
+      <c r="D26" t="n" s="454">
+        <v>0.015625</v>
+      </c>
+      <c r="E26" t="n" s="455">
+        <v>0.40625</v>
+      </c>
+      <c r="F26" t="n" s="456">
+        <v>0.375</v>
+      </c>
+      <c r="G26" t="n" s="457">
+        <v>0.09375</v>
+      </c>
+      <c r="H26" t="n" s="458">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="447">
+        <v>20</v>
+      </c>
+      <c r="B27" t="n" s="452">
+        <v>0.015625</v>
+      </c>
+      <c r="C27" t="n" s="453">
+        <v>0.0</v>
+      </c>
+      <c r="D27" t="n" s="454">
+        <v>0.03125</v>
+      </c>
+      <c r="E27" t="n" s="455">
+        <v>0.28125</v>
+      </c>
+      <c r="F27" t="n" s="456">
         <v>0.171875</v>
       </c>
-      <c r="C23" t="n" s="455">
-        <v>0.046875</v>
-      </c>
-      <c r="D23" t="n" s="456">
-        <v>0.40625</v>
-      </c>
-      <c r="E23" t="n" s="457">
-        <v>0.265625</v>
-      </c>
-      <c r="F23" t="n" s="458">
-        <v>0.109375</v>
-      </c>
-      <c r="G23" t="n" s="459">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="449">
-        <v>29</v>
-      </c>
-      <c r="B24" t="n" s="454">
-        <v>0.21875</v>
-      </c>
-      <c r="C24" t="n" s="455">
-        <v>0.03125</v>
-      </c>
-      <c r="D24" t="n" s="456">
-        <v>0.46875</v>
-      </c>
-      <c r="E24" t="n" s="457">
-        <v>0.203125</v>
-      </c>
-      <c r="F24" t="n" s="458">
-        <v>0.078125</v>
-      </c>
-      <c r="G24" t="n" s="459">
+      <c r="G27" t="n" s="457">
+        <v>0.5</v>
+      </c>
+      <c r="H27" t="n" s="458">
         <v>0.0</v>
       </c>
     </row>
@@ -6551,8 +6707,8 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="461">
-        <v>47</v>
+      <c r="A1" t="s" s="460">
+        <v>48</v>
       </c>
     </row>
     <row r="2">
@@ -6566,66 +6722,66 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="475">
+      <c r="A4" t="s" s="474">
         <v>2</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="489">
+      <c r="A5" t="s" s="488">
         <v>3</v>
       </c>
-      <c r="B5" t="s" s="489">
+      <c r="B5" t="s" s="488">
         <v>4</v>
       </c>
-      <c r="C5" t="s" s="489">
+      <c r="C5" t="s" s="488">
         <v>5</v>
       </c>
-      <c r="D5" t="s" s="489">
+      <c r="D5" t="s" s="488">
         <v>6</v>
       </c>
-      <c r="E5" t="s" s="489">
+      <c r="E5" t="s" s="488">
         <v>7</v>
       </c>
-      <c r="F5" t="s" s="489">
+      <c r="F5" t="s" s="488">
         <v>8</v>
       </c>
-      <c r="G5" t="s" s="489">
+      <c r="G5" t="s" s="488">
         <v>9</v>
       </c>
-      <c r="H5" t="s" s="489">
+      <c r="H5" t="s" s="488">
         <v>10</v>
       </c>
-      <c r="I5" t="s" s="489">
+      <c r="I5" t="s" s="488">
         <v>11</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n" s="490">
-        <v>0.9771891096394407</v>
-      </c>
-      <c r="B6" t="n" s="491">
-        <v>0.9811359072091674</v>
-      </c>
-      <c r="C6" t="n" s="492">
-        <v>0.9629703452613373</v>
-      </c>
-      <c r="D6" t="n" s="493">
-        <v>0.9629703452613374</v>
-      </c>
-      <c r="E6" t="n" s="494">
-        <v>52.01076553683887</v>
-      </c>
-      <c r="F6" t="n" s="495">
-        <v>0.005165097659531262</v>
-      </c>
-      <c r="G6" t="n" s="496">
-        <v>0.140625</v>
-      </c>
-      <c r="H6" t="n" s="497">
-        <v>0.5805631502503164</v>
-      </c>
-      <c r="I6" t="n" s="498">
-        <v>0.9629703452613374</v>
+      <c r="A6" t="n" s="489">
+        <v>0.4418749999999998</v>
+      </c>
+      <c r="B6" t="n" s="490">
+        <v>0.44483859088779587</v>
+      </c>
+      <c r="C6" t="n" s="491">
+        <v>0.2860401423809382</v>
+      </c>
+      <c r="D6" t="n" s="492">
+        <v>0.28604014238093844</v>
+      </c>
+      <c r="E6" t="n" s="493">
+        <v>0.8012779411291698</v>
+      </c>
+      <c r="F6" t="n" s="494">
+        <v>0.13823319825821306</v>
+      </c>
+      <c r="G6" t="n" s="495">
+        <v>1.875</v>
+      </c>
+      <c r="H6" t="n" s="496">
+        <v>1.0910894511799618</v>
+      </c>
+      <c r="I6" t="n" s="497">
+        <v>0.2860401423809385</v>
       </c>
     </row>
     <row r="7">
@@ -6639,81 +6795,81 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="502">
+      <c r="A9" t="s" s="501">
         <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10"/>
-      <c r="B10" t="s" s="516">
+      <c r="B10" t="s" s="515">
         <v>3</v>
       </c>
-      <c r="C10" t="s" s="516">
+      <c r="C10" t="s" s="515">
         <v>4</v>
       </c>
-      <c r="D10" t="s" s="516">
+      <c r="D10" t="s" s="515">
         <v>13</v>
       </c>
-      <c r="E10" t="s" s="516">
+      <c r="E10" t="s" s="515">
         <v>6</v>
       </c>
-      <c r="F10" t="s" s="516">
+      <c r="F10" t="s" s="515">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="516">
+      <c r="G10" t="s" s="515">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="516">
+      <c r="H10" t="s" s="515">
         <v>16</v>
       </c>
-      <c r="I10" t="s" s="516">
+      <c r="I10" t="s" s="515">
         <v>17</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="512">
-        <v>22</v>
-      </c>
-      <c r="B11" t="n" s="517">
-        <v>0.9629703452613373</v>
-      </c>
-      <c r="C11" t="n" s="518">
-        <v>0.9629703452613373</v>
-      </c>
-      <c r="D11" t="n" s="519">
-        <v>0.9273118858527392</v>
-      </c>
-      <c r="E11" t="n" s="520">
-        <v>0.9629703452613373</v>
-      </c>
-      <c r="F11" s="521"/>
-      <c r="G11" s="522"/>
-      <c r="H11" t="n" s="523">
-        <v>0.9629703452613373</v>
-      </c>
-      <c r="I11" t="n" s="524">
-        <v>0.9629703452613373</v>
+      <c r="A11" t="s" s="511">
+        <v>27</v>
+      </c>
+      <c r="B11" t="n" s="516">
+        <v>0.2860401423809385</v>
+      </c>
+      <c r="C11" t="n" s="517">
+        <v>0.2860401423809385</v>
+      </c>
+      <c r="D11" t="n" s="518">
+        <v>0.08181896305330705</v>
+      </c>
+      <c r="E11" t="n" s="519">
+        <v>0.2860401423809385</v>
+      </c>
+      <c r="F11" s="520"/>
+      <c r="G11" s="521"/>
+      <c r="H11" t="n" s="522">
+        <v>0.2860401423809385</v>
+      </c>
+      <c r="I11" t="n" s="523">
+        <v>0.2860401423809385</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="512">
-        <v>23</v>
-      </c>
-      <c r="B12" t="n" s="517">
-        <v>0.9273118858527392</v>
-      </c>
-      <c r="C12" t="n" s="518">
-        <v>0.9629703452613373</v>
-      </c>
-      <c r="D12" s="519"/>
-      <c r="E12" s="520"/>
-      <c r="F12" s="521"/>
-      <c r="G12" s="522"/>
-      <c r="H12" t="n" s="523">
-        <v>0.9273118858527392</v>
-      </c>
-      <c r="I12" t="n" s="524">
-        <v>0.9629703452613373</v>
+      <c r="A12" t="s" s="511">
+        <v>28</v>
+      </c>
+      <c r="B12" t="n" s="516">
+        <v>0.08181896305330705</v>
+      </c>
+      <c r="C12" t="n" s="517">
+        <v>0.2860401423809385</v>
+      </c>
+      <c r="D12" s="518"/>
+      <c r="E12" s="519"/>
+      <c r="F12" s="520"/>
+      <c r="G12" s="521"/>
+      <c r="H12" t="n" s="522">
+        <v>0.08181896305330705</v>
+      </c>
+      <c r="I12" t="n" s="523">
+        <v>0.2860401423809385</v>
       </c>
     </row>
     <row r="13">
@@ -6727,84 +6883,84 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="528">
-        <v>30</v>
+      <c r="A15" t="s" s="527">
+        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16"/>
-      <c r="B16" t="s" s="542">
-        <v>31</v>
-      </c>
-      <c r="C16" t="s" s="542">
+      <c r="B16" t="s" s="541">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="542">
+      <c r="C16" t="s" s="541">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="542">
+      <c r="D16" t="s" s="541">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="542">
+      <c r="E16" t="s" s="541">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="542">
+      <c r="F16" t="s" s="541">
+        <v>36</v>
+      </c>
+      <c r="G16" t="s" s="541">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="542">
+      <c r="H16" t="s" s="541">
         <v>10</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="538">
-        <v>22</v>
-      </c>
-      <c r="B17" t="n" s="543">
+      <c r="A17" t="s" s="537">
+        <v>27</v>
+      </c>
+      <c r="B17" t="n" s="542">
         <v>64.0</v>
       </c>
-      <c r="C17" t="n" s="544">
-        <v>0.9894881453672084</v>
-      </c>
-      <c r="D17" t="n" s="545">
-        <v>0.9906993351318395</v>
-      </c>
-      <c r="E17" t="n" s="546">
-        <v>0.9721836840623476</v>
-      </c>
-      <c r="F17" t="n" s="547">
-        <v>0.9629703452613374</v>
-      </c>
-      <c r="G17" t="n" s="548">
-        <v>0.125</v>
-      </c>
-      <c r="H17" t="n" s="549">
-        <v>0.549169647365276</v>
+      <c r="C17" t="n" s="543">
+        <v>0.8300686692456929</v>
+      </c>
+      <c r="D17" t="n" s="544">
+        <v>0.8018853229673611</v>
+      </c>
+      <c r="E17" t="n" s="545">
+        <v>0.4288700883917211</v>
+      </c>
+      <c r="F17" t="n" s="546">
+        <v>0.28604014238093844</v>
+      </c>
+      <c r="G17" t="n" s="547">
+        <v>1.328125</v>
+      </c>
+      <c r="H17" t="n" s="548">
+        <v>1.448093300291527</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="538">
-        <v>23</v>
-      </c>
-      <c r="B18" t="n" s="543">
+      <c r="A18" t="s" s="537">
+        <v>28</v>
+      </c>
+      <c r="B18" t="n" s="542">
         <v>64.0</v>
       </c>
-      <c r="C18" t="n" s="544">
-        <v>0.9918367369698339</v>
-      </c>
-      <c r="D18" t="n" s="545">
-        <v>0.9906993351318394</v>
-      </c>
-      <c r="E18" t="n" s="546">
-        <v>0.9721836840623475</v>
-      </c>
-      <c r="F18" t="n" s="547">
-        <v>0.9629703452613374</v>
-      </c>
-      <c r="G18" t="n" s="548">
-        <v>0.15625</v>
-      </c>
-      <c r="H18" t="n" s="549">
-        <v>0.6228136361680157</v>
+      <c r="C18" t="n" s="543">
+        <v>0.7717937485108323</v>
+      </c>
+      <c r="D18" t="n" s="544">
+        <v>0.8018853229673611</v>
+      </c>
+      <c r="E18" t="n" s="545">
+        <v>0.4288700883917216</v>
+      </c>
+      <c r="F18" t="n" s="546">
+        <v>0.28604014238093844</v>
+      </c>
+      <c r="G18" t="n" s="547">
+        <v>2.421875</v>
+      </c>
+      <c r="H18" t="n" s="548">
+        <v>1.2699792211773475</v>
       </c>
     </row>
     <row r="19">
@@ -6818,65 +6974,74 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="553">
-        <v>36</v>
+      <c r="A21" t="s" s="552">
+        <v>37</v>
       </c>
     </row>
     <row r="22">
       <c r="A22"/>
-      <c r="B22" t="s" s="567">
-        <v>37</v>
-      </c>
-      <c r="C22" t="s" s="567">
+      <c r="B22" t="s" s="566">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="567">
+      <c r="C22" t="s" s="566">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="567">
+      <c r="D22" t="s" s="566">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="567">
-        <v>43</v>
+      <c r="E22" t="s" s="566">
+        <v>41</v>
+      </c>
+      <c r="F22" t="s" s="566">
+        <v>42</v>
+      </c>
+      <c r="G22" t="s" s="566">
+        <v>44</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s" s="563">
-        <v>22</v>
-      </c>
-      <c r="B23" t="n" s="568">
-        <v>0.9375</v>
-      </c>
-      <c r="C23" t="n" s="569">
-        <v>0.03125</v>
-      </c>
-      <c r="D23" t="n" s="570">
-        <v>0.0</v>
-      </c>
-      <c r="E23" t="n" s="571">
-        <v>0.03125</v>
-      </c>
-      <c r="F23" t="n" s="572">
+      <c r="A23" t="s" s="562">
+        <v>27</v>
+      </c>
+      <c r="B23" t="n" s="567">
+        <v>0.4375</v>
+      </c>
+      <c r="C23" t="n" s="568">
+        <v>0.1875</v>
+      </c>
+      <c r="D23" t="n" s="569">
+        <v>0.078125</v>
+      </c>
+      <c r="E23" t="n" s="570">
+        <v>0.203125</v>
+      </c>
+      <c r="F23" t="n" s="571">
+        <v>0.09375</v>
+      </c>
+      <c r="G23" t="n" s="572">
         <v>0.0</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s" s="563">
-        <v>23</v>
-      </c>
-      <c r="B24" t="n" s="568">
-        <v>0.9375</v>
-      </c>
-      <c r="C24" t="n" s="569">
-        <v>0.0</v>
-      </c>
-      <c r="D24" t="n" s="570">
-        <v>0.03125</v>
-      </c>
-      <c r="E24" t="n" s="571">
-        <v>0.03125</v>
-      </c>
-      <c r="F24" t="n" s="572">
+      <c r="A24" t="s" s="562">
+        <v>28</v>
+      </c>
+      <c r="B24" t="n" s="567">
+        <v>0.140625</v>
+      </c>
+      <c r="C24" t="n" s="568">
+        <v>0.109375</v>
+      </c>
+      <c r="D24" t="n" s="569">
+        <v>0.078125</v>
+      </c>
+      <c r="E24" t="n" s="570">
+        <v>0.53125</v>
+      </c>
+      <c r="F24" t="n" s="571">
+        <v>0.140625</v>
+      </c>
+      <c r="G24" t="n" s="572">
         <v>0.0</v>
       </c>
     </row>
@@ -6907,7 +7072,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="574">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2">
@@ -6956,31 +7121,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="603">
-        <v>0.4418749999999998</v>
+        <v>0.9022329226266346</v>
       </c>
       <c r="B6" t="n" s="604">
-        <v>0.44483859088779587</v>
+        <v>0.9022437825053702</v>
       </c>
       <c r="C6" t="n" s="605">
-        <v>0.2860401423809382</v>
+        <v>0.8218981301372439</v>
       </c>
       <c r="D6" t="n" s="606">
-        <v>0.28604014238093844</v>
+        <v>0.8218981301372441</v>
       </c>
       <c r="E6" t="n" s="607">
-        <v>0.8012779411291698</v>
+        <v>9.229528367900835</v>
       </c>
       <c r="F6" t="n" s="608">
-        <v>0.13823319825821306</v>
+        <v>0.02444011764320252</v>
       </c>
       <c r="G6" t="n" s="609">
-        <v>1.875</v>
+        <v>1.9921875</v>
       </c>
       <c r="H6" t="n" s="610">
-        <v>1.0910894511799618</v>
+        <v>1.1460497631097044</v>
       </c>
       <c r="I6" t="n" s="611">
-        <v>0.2860401423809385</v>
+        <v>0.8218981301372441</v>
       </c>
     </row>
     <row r="7">
@@ -7027,48 +7192,48 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="625">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B11" t="n" s="630">
-        <v>0.2860401423809385</v>
+        <v>0.821898130137244</v>
       </c>
       <c r="C11" t="n" s="631">
-        <v>0.2860401423809385</v>
+        <v>0.821898130137244</v>
       </c>
       <c r="D11" t="n" s="632">
-        <v>0.08181896305330705</v>
+        <v>0.6755165363230979</v>
       </c>
       <c r="E11" t="n" s="633">
-        <v>0.2860401423809385</v>
+        <v>0.821898130137244</v>
       </c>
       <c r="F11" s="634"/>
       <c r="G11" s="635"/>
       <c r="H11" t="n" s="636">
-        <v>0.2860401423809385</v>
+        <v>0.821898130137244</v>
       </c>
       <c r="I11" t="n" s="637">
-        <v>0.2860401423809385</v>
+        <v>0.821898130137244</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="625">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B12" t="n" s="630">
-        <v>0.08181896305330705</v>
+        <v>0.6755165363230979</v>
       </c>
       <c r="C12" t="n" s="631">
-        <v>0.2860401423809385</v>
+        <v>0.821898130137244</v>
       </c>
       <c r="D12" s="632"/>
       <c r="E12" s="633"/>
       <c r="F12" s="634"/>
       <c r="G12" s="635"/>
       <c r="H12" t="n" s="636">
-        <v>0.08181896305330705</v>
+        <v>0.6755165363230979</v>
       </c>
       <c r="I12" t="n" s="637">
-        <v>0.2860401423809385</v>
+        <v>0.821898130137244</v>
       </c>
     </row>
     <row r="13">
@@ -7083,25 +7248,25 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="641">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16"/>
       <c r="B16" t="s" s="655">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s" s="655">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D16" t="s" s="655">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E16" t="s" s="655">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F16" t="s" s="655">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G16" t="s" s="655">
         <v>9</v>
@@ -7112,54 +7277,54 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="651">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B17" t="n" s="656">
         <v>64.0</v>
       </c>
       <c r="C17" t="n" s="657">
-        <v>0.8300686692456929</v>
+        <v>0.954744956117068</v>
       </c>
       <c r="D17" t="n" s="658">
-        <v>0.8018853229673611</v>
+        <v>0.9544365170448069</v>
       </c>
       <c r="E17" t="n" s="659">
-        <v>0.4288700883917211</v>
+        <v>0.8652787604178038</v>
       </c>
       <c r="F17" t="n" s="660">
-        <v>0.28604014238093844</v>
+        <v>0.8218981301372441</v>
       </c>
       <c r="G17" t="n" s="661">
-        <v>1.328125</v>
+        <v>2.09375</v>
       </c>
       <c r="H17" t="n" s="662">
-        <v>1.448093300291527</v>
+        <v>1.2047360245667467</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="651">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B18" t="n" s="656">
         <v>64.0</v>
       </c>
       <c r="C18" t="n" s="657">
-        <v>0.7717937485108323</v>
+        <v>0.9541270549464198</v>
       </c>
       <c r="D18" t="n" s="658">
-        <v>0.8018853229673611</v>
+        <v>0.9544365170448069</v>
       </c>
       <c r="E18" t="n" s="659">
-        <v>0.4288700883917216</v>
+        <v>0.8652787604178038</v>
       </c>
       <c r="F18" t="n" s="660">
-        <v>0.28604014238093844</v>
+        <v>0.8218981301372439</v>
       </c>
       <c r="G18" t="n" s="661">
-        <v>2.421875</v>
+        <v>1.890625</v>
       </c>
       <c r="H18" t="n" s="662">
-        <v>1.2699792211773475</v>
+        <v>1.1967838846954226</v>
       </c>
     </row>
     <row r="19">
@@ -7174,48 +7339,48 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="666">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22">
       <c r="A22"/>
       <c r="B22" t="s" s="680">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C22" t="s" s="680">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D22" t="s" s="680">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E22" t="s" s="680">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F22" t="s" s="680">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G22" t="s" s="680">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="676">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B23" t="n" s="681">
-        <v>0.4375</v>
+        <v>0.171875</v>
       </c>
       <c r="C23" t="n" s="682">
-        <v>0.1875</v>
+        <v>0.046875</v>
       </c>
       <c r="D23" t="n" s="683">
-        <v>0.078125</v>
+        <v>0.40625</v>
       </c>
       <c r="E23" t="n" s="684">
-        <v>0.203125</v>
+        <v>0.265625</v>
       </c>
       <c r="F23" t="n" s="685">
-        <v>0.09375</v>
+        <v>0.109375</v>
       </c>
       <c r="G23" t="n" s="686">
         <v>0.0</v>
@@ -7223,22 +7388,22 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="676">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B24" t="n" s="681">
-        <v>0.140625</v>
+        <v>0.21875</v>
       </c>
       <c r="C24" t="n" s="682">
-        <v>0.109375</v>
+        <v>0.03125</v>
       </c>
       <c r="D24" t="n" s="683">
+        <v>0.46875</v>
+      </c>
+      <c r="E24" t="n" s="684">
+        <v>0.203125</v>
+      </c>
+      <c r="F24" t="n" s="685">
         <v>0.078125</v>
-      </c>
-      <c r="E24" t="n" s="684">
-        <v>0.53125</v>
-      </c>
-      <c r="F24" t="n" s="685">
-        <v>0.140625</v>
       </c>
       <c r="G24" t="n" s="686">
         <v>0.0</v>
@@ -7271,7 +7436,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="688">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2">
@@ -7320,31 +7485,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="717">
-        <v>0.7279564097958207</v>
+        <v>0.6541568205228594</v>
       </c>
       <c r="B6" t="n" s="718">
-        <v>0.7228117790014028</v>
+        <v>0.7150853462379881</v>
       </c>
       <c r="C6" t="n" s="719">
-        <v>0.8658793724530376</v>
+        <v>0.805335655863015</v>
       </c>
       <c r="D6" t="n" s="720">
-        <v>0.20683120790522927</v>
+        <v>0.20062817727334376</v>
       </c>
       <c r="E6" t="n" s="721">
-        <v>2.6076569069111373</v>
+        <v>2.5098229831144327</v>
       </c>
       <c r="F6" t="n" s="722">
-        <v>0.049765410071635804</v>
+        <v>0.060475291990576836</v>
       </c>
       <c r="G6" t="n" s="723">
-        <v>2.2921875</v>
+        <v>1.646875</v>
       </c>
       <c r="H6" t="n" s="724">
-        <v>0.5875168859444307</v>
+        <v>0.48631061665669595</v>
       </c>
       <c r="I6" t="n" s="725">
-        <v>0.13608632249276406</v>
+        <v>0.11433336076244098</v>
       </c>
     </row>
     <row r="7">
@@ -7391,292 +7556,292 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="739">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B11" t="n" s="744">
-        <v>0.6968193967836696</v>
+        <v>0.6477064919231941</v>
       </c>
       <c r="C11" t="n" s="745">
-        <v>0.6935320592508581</v>
+        <v>0.6743505703403881</v>
       </c>
       <c r="D11" t="n" s="746">
-        <v>0.8500374594367098</v>
+        <v>0.8143200188715339</v>
       </c>
       <c r="E11" t="n" s="747">
-        <v>0.20092224524454355</v>
+        <v>0.1870496571053424</v>
       </c>
       <c r="F11" t="n" s="748">
-        <v>2.262984041839946</v>
+        <v>2.0707868920429537</v>
       </c>
       <c r="G11" t="n" s="749">
-        <v>0.05560398551917317</v>
+        <v>0.06258458935261471</v>
       </c>
       <c r="H11" t="n" s="750">
-        <v>0.0680878299009757</v>
+        <v>0.05532927098754094</v>
       </c>
       <c r="I11" t="n" s="751">
-        <v>0.1434328927252391</v>
+        <v>0.11539869955320384</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="739">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B12" t="n" s="744">
-        <v>0.6923891706563159</v>
+        <v>0.6390057296166611</v>
       </c>
       <c r="C12" t="n" s="745">
-        <v>0.6889631291748615</v>
+        <v>0.6747060394916022</v>
       </c>
       <c r="D12" t="n" s="746">
-        <v>0.837045008970518</v>
+        <v>0.8172805093378359</v>
       </c>
       <c r="E12" t="n" s="747">
-        <v>0.19750713049537977</v>
+        <v>0.18729599402405805</v>
       </c>
       <c r="F12" t="n" s="748">
-        <v>2.215052920726523</v>
+        <v>2.074142533839586</v>
       </c>
       <c r="G12" t="n" s="749">
-        <v>0.05635073049912278</v>
+        <v>0.06288658216427372</v>
       </c>
       <c r="H12" t="n" s="750">
-        <v>0.06511638056428753</v>
+        <v>0.05541291052075558</v>
       </c>
       <c r="I12" t="n" s="751">
-        <v>0.1434328927252391</v>
+        <v>0.11539869955320384</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="739">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B13" t="n" s="744">
-        <v>0.6965436986122591</v>
+        <v>0.6382549641478212</v>
       </c>
       <c r="C13" t="n" s="745">
-        <v>0.6994582935864038</v>
+        <v>0.6707152618762465</v>
       </c>
       <c r="D13" t="n" s="746">
-        <v>0.8380823812822552</v>
+        <v>0.8008808497868928</v>
       </c>
       <c r="E13" t="n" s="747">
-        <v>0.205461146065252</v>
+        <v>0.18455255195408263</v>
       </c>
       <c r="F13" t="n" s="748">
-        <v>2.3273252219571514</v>
+        <v>2.036885358543933</v>
       </c>
       <c r="G13" t="n" s="749">
-        <v>0.055929457807788255</v>
+        <v>0.0626978304816087</v>
       </c>
       <c r="H13" t="n" s="750">
-        <v>0.058824763689448424</v>
+        <v>0.05190362084626288</v>
       </c>
       <c r="I13" t="n" s="751">
-        <v>0.12520984162760251</v>
+        <v>0.11539869955320384</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="739">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B14" t="n" s="744">
-        <v>0.6774838376479051</v>
+        <v>0.6555295609818489</v>
       </c>
       <c r="C14" t="n" s="745">
-        <v>0.6722884103964123</v>
+        <v>0.7104822029378332</v>
       </c>
       <c r="D14" t="n" s="746">
-        <v>0.8248173772359775</v>
+        <v>0.8038481062799325</v>
       </c>
       <c r="E14" t="n" s="747">
-        <v>0.18562823048806162</v>
+        <v>0.21424960760830705</v>
       </c>
       <c r="F14" t="n" s="748">
-        <v>2.051463639749933</v>
+        <v>2.4540190970894757</v>
       </c>
       <c r="G14" t="n" s="749">
-        <v>0.059075009968418565</v>
+        <v>0.06207418893192509</v>
       </c>
       <c r="H14" t="n" s="750">
-        <v>0.06519558939760833</v>
+        <v>0.08344634980233093</v>
       </c>
       <c r="I14" t="n" s="751">
-        <v>0.13468756367543577</v>
+        <v>0.1164004295392401</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="739">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B15" t="n" s="744">
-        <v>0.7010083620265617</v>
+        <v>0.631610178143025</v>
       </c>
       <c r="C15" t="n" s="745">
-        <v>0.7005652494600296</v>
+        <v>0.7056030750190256</v>
       </c>
       <c r="D15" t="n" s="746">
-        <v>0.8248118709556934</v>
+        <v>0.792462052932323</v>
       </c>
       <c r="E15" t="n" s="747">
-        <v>0.2063230121263525</v>
+        <v>0.21030288760791307</v>
       </c>
       <c r="F15" t="n" s="748">
-        <v>2.3396257388185613</v>
+        <v>2.396774609872796</v>
       </c>
       <c r="G15" t="n" s="749">
-        <v>0.05405782433884197</v>
+        <v>0.06356633177523295</v>
       </c>
       <c r="H15" t="n" s="750">
-        <v>0.06844977264133217</v>
+        <v>0.07981959532581005</v>
       </c>
       <c r="I15" t="n" s="751">
-        <v>0.13468756367543577</v>
+        <v>0.11746576833000294</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="739">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B16" t="n" s="744">
-        <v>0.7140703408894272</v>
+        <v>0.6289030560098118</v>
       </c>
       <c r="C16" t="n" s="745">
-        <v>0.7126548975122664</v>
+        <v>0.7011939709285859</v>
       </c>
       <c r="D16" t="n" s="746">
-        <v>0.8318121388268642</v>
+        <v>0.7817409759941382</v>
       </c>
       <c r="E16" t="n" s="747">
-        <v>0.2160371534706982</v>
+        <v>0.20681453389919507</v>
       </c>
       <c r="F16" t="n" s="748">
-        <v>2.480135876137609</v>
+        <v>2.346652686720059</v>
       </c>
       <c r="G16" t="n" s="749">
-        <v>0.0516397356842123</v>
+        <v>0.06390780400685307</v>
       </c>
       <c r="H16" t="n" s="750">
-        <v>0.06713770742409546</v>
+        <v>0.077784518642709</v>
       </c>
       <c r="I16" t="n" s="751">
-        <v>0.16196788673341572</v>
+        <v>0.11746576833000294</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="739">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B17" t="n" s="744">
-        <v>0.7316456500452224</v>
+        <v>0.6269769885014462</v>
       </c>
       <c r="C17" t="n" s="745">
-        <v>0.7253294817303874</v>
+        <v>0.6917760655725166</v>
       </c>
       <c r="D17" t="n" s="746">
-        <v>0.821881583574366</v>
+        <v>0.7990875518875226</v>
       </c>
       <c r="E17" t="n" s="747">
-        <v>0.226852322279964</v>
+        <v>0.19960117926272833</v>
       </c>
       <c r="F17" t="n" s="748">
-        <v>2.640725645765936</v>
+        <v>2.2443943779300257</v>
       </c>
       <c r="G17" t="n" s="749">
-        <v>0.05007085296991896</v>
+        <v>0.06550890532911471</v>
       </c>
       <c r="H17" t="n" s="750">
-        <v>0.05344256766513905</v>
+        <v>0.09047277068670412</v>
       </c>
       <c r="I17" t="n" s="751">
-        <v>0.17510334600570857</v>
+        <v>0.033141106109470325</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="739">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B18" t="n" s="744">
-        <v>0.7321523928429065</v>
+        <v>0.5880170715692712</v>
       </c>
       <c r="C18" t="n" s="745">
-        <v>0.7235793877872408</v>
+        <v>0.6811105533578055</v>
       </c>
       <c r="D18" t="n" s="746">
-        <v>0.8222538287760272</v>
+        <v>0.7873444568782189</v>
       </c>
       <c r="E18" t="n" s="747">
-        <v>0.22531833374183238</v>
+        <v>0.19180185474955305</v>
       </c>
       <c r="F18" t="n" s="748">
-        <v>2.6176752232583396</v>
+        <v>2.135883016919139</v>
       </c>
       <c r="G18" t="n" s="749">
-        <v>0.049836763279483755</v>
+        <v>0.0732589472809953</v>
       </c>
       <c r="H18" t="n" s="750">
-        <v>0.054823562495101494</v>
+        <v>0.08918856594850111</v>
       </c>
       <c r="I18" t="n" s="751">
-        <v>0.17510334600570857</v>
+        <v>0.033141106109470325</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="739">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B19" t="n" s="744">
-        <v>0.7308811802232854</v>
+        <v>0.6082805616740088</v>
       </c>
       <c r="C19" t="n" s="745">
-        <v>0.7111453404253033</v>
+        <v>0.7054843496809179</v>
       </c>
       <c r="D19" t="n" s="746">
-        <v>0.8739865062072809</v>
+        <v>0.7593148768599676</v>
       </c>
       <c r="E19" t="n" s="747">
-        <v>0.21479320214617173</v>
+        <v>0.21020799496524414</v>
       </c>
       <c r="F19" t="n" s="748">
-        <v>2.46194865428994</v>
+        <v>2.3954052999105038</v>
       </c>
       <c r="G19" t="n" s="749">
-        <v>0.04875189705153607</v>
+        <v>0.06776500679187972</v>
       </c>
       <c r="H19" t="n" s="750">
-        <v>0.0799385498465623</v>
+        <v>0.07584930611075541</v>
       </c>
       <c r="I19" t="n" s="751">
-        <v>0.13468756367543577</v>
+        <v>0.11746576833000294</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="739">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B20" t="n" s="744">
-        <v>0.680836536997564</v>
+        <v>0.6172034230026859</v>
       </c>
       <c r="C20" t="n" s="745">
-        <v>0.677818037687238</v>
+        <v>0.7106726092782449</v>
       </c>
       <c r="D20" t="n" s="746">
-        <v>0.8572510296964826</v>
+        <v>0.7628946340589544</v>
       </c>
       <c r="E20" t="n" s="747">
-        <v>0.189469302994037</v>
+        <v>0.21440551155701382</v>
       </c>
       <c r="F20" t="n" s="748">
-        <v>2.1038360832542136</v>
+        <v>2.4562921868731604</v>
       </c>
       <c r="G20" t="n" s="749">
-        <v>0.059370014935484966</v>
+        <v>0.0661034226104343</v>
       </c>
       <c r="H20" t="n" s="750">
-        <v>0.07873996261429606</v>
+        <v>0.07457248694938792</v>
       </c>
       <c r="I20" t="n" s="751">
-        <v>0.10056468991742246</v>
+        <v>0.11746576833000294</v>
       </c>
     </row>
     <row r="21">
@@ -7691,25 +7856,25 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="755">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24">
       <c r="A24"/>
       <c r="B24" t="s" s="769">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C24" t="s" s="769">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D24" t="s" s="769">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E24" t="s" s="769">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F24" t="s" s="769">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G24" t="s" s="769">
         <v>9</v>
@@ -7720,262 +7885,262 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="765">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B25" t="n" s="770">
         <v>64.0</v>
       </c>
       <c r="C25" t="n" s="771">
-        <v>0.5902512153947838</v>
+        <v>0.3896424582849265</v>
       </c>
       <c r="D25" t="n" s="772">
-        <v>0.5746947013348467</v>
+        <v>0.6219706526298306</v>
       </c>
       <c r="E25" t="n" s="773">
-        <v>0.5129760825043423</v>
+        <v>0.6426563652078998</v>
       </c>
       <c r="F25" t="n" s="774">
-        <v>0.44721638180578804</v>
+        <v>0.3458583563273715</v>
       </c>
       <c r="G25" t="n" s="775">
-        <v>3.3125</v>
+        <v>0.0625</v>
       </c>
       <c r="H25" t="n" s="776">
-        <v>1.096531327587567</v>
+        <v>0.2439750182371333</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="765">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B26" t="n" s="770">
         <v>64.0</v>
       </c>
       <c r="C26" t="n" s="771">
-        <v>0.6117497238129551</v>
+        <v>0.39969752837798866</v>
       </c>
       <c r="D26" t="n" s="772">
-        <v>0.5976780009146033</v>
+        <v>0.6202964231643807</v>
       </c>
       <c r="E26" t="n" s="773">
-        <v>0.5603514866326934</v>
+        <v>0.6507613512932582</v>
       </c>
       <c r="F26" t="n" s="774">
-        <v>0.47585003574989665</v>
+        <v>0.2985781475595724</v>
       </c>
       <c r="G26" t="n" s="775">
-        <v>4.09375</v>
+        <v>0.125</v>
       </c>
       <c r="H26" t="n" s="776">
-        <v>1.0796641159057772</v>
+        <v>0.549169647365276</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="765">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B27" t="n" s="770">
         <v>64.0</v>
       </c>
       <c r="C27" t="n" s="771">
-        <v>0.5871756802796615</v>
+        <v>0.40517002117632006</v>
       </c>
       <c r="D27" t="n" s="772">
-        <v>0.5441484605824126</v>
+        <v>0.6389422338461728</v>
       </c>
       <c r="E27" t="n" s="773">
-        <v>0.5136913215288401</v>
+        <v>0.5016135654019005</v>
       </c>
       <c r="F27" t="n" s="774">
-        <v>0.45451864355403826</v>
+        <v>0.29006308340992304</v>
       </c>
       <c r="G27" t="n" s="775">
-        <v>3.46875</v>
+        <v>0.15625</v>
       </c>
       <c r="H27" t="n" s="776">
-        <v>1.0230478894592296</v>
+        <v>0.6228136361680157</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="765">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B28" t="n" s="770">
         <v>64.0</v>
       </c>
       <c r="C28" t="n" s="771">
-        <v>0.684494632719223</v>
+        <v>0.3255806636956612</v>
       </c>
       <c r="D28" t="n" s="772">
-        <v>0.6776215277354856</v>
+        <v>0.43710612307300933</v>
       </c>
       <c r="E28" t="n" s="773">
-        <v>0.6611335567242949</v>
+        <v>0.3299143324475738</v>
       </c>
       <c r="F28" t="n" s="774">
-        <v>0.5637759290673737</v>
+        <v>0.3023168867881917</v>
       </c>
       <c r="G28" t="n" s="775">
-        <v>4.03125</v>
+        <v>0.984375</v>
       </c>
       <c r="H28" t="n" s="776">
-        <v>1.0978875820670997</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="765">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B29" t="n" s="770">
         <v>64.0</v>
       </c>
       <c r="C29" t="n" s="771">
-        <v>0.5818784320118164</v>
+        <v>0.507887261542153</v>
       </c>
       <c r="D29" t="n" s="772">
-        <v>0.5383482086626937</v>
+        <v>0.463930015126997</v>
       </c>
       <c r="E29" t="n" s="773">
-        <v>0.5205834060620275</v>
+        <v>0.3875444700715782</v>
       </c>
       <c r="F29" t="n" s="774">
-        <v>0.4204049678324816</v>
+        <v>0.31152446534571954</v>
       </c>
       <c r="G29" t="n" s="775">
-        <v>2.09375</v>
+        <v>3.3125</v>
       </c>
       <c r="H29" t="n" s="776">
-        <v>1.2047360245667467</v>
+        <v>1.096531327587567</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="765">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B30" t="n" s="770">
         <v>64.0</v>
       </c>
       <c r="C30" t="n" s="771">
-        <v>0.5179851885894416</v>
+        <v>0.5144991850826895</v>
       </c>
       <c r="D30" t="n" s="772">
-        <v>0.4729732397156432</v>
+        <v>0.48763861956801086</v>
       </c>
       <c r="E30" t="n" s="773">
-        <v>0.44700443877888935</v>
+        <v>0.43071296672734805</v>
       </c>
       <c r="F30" t="n" s="774">
-        <v>0.3448739289160162</v>
+        <v>0.32283365510156165</v>
       </c>
       <c r="G30" t="n" s="775">
-        <v>1.890625</v>
+        <v>4.09375</v>
       </c>
       <c r="H30" t="n" s="776">
-        <v>1.1967838846954226</v>
+        <v>1.0796641159057772</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="765">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B31" t="n" s="770">
         <v>64.0</v>
       </c>
       <c r="C31" t="n" s="771">
-        <v>0.2539759749754476</v>
+        <v>0.6044175681862938</v>
       </c>
       <c r="D31" t="n" s="772">
-        <v>0.40018849220171004</v>
+        <v>0.5366642018480815</v>
       </c>
       <c r="E31" t="n" s="773">
-        <v>0.41619250169774036</v>
+        <v>0.42705596189615697</v>
       </c>
       <c r="F31" t="n" s="774">
-        <v>0.1637054890669128</v>
+        <v>0.35921954419700936</v>
       </c>
       <c r="G31" t="n" s="775">
-        <v>0.125</v>
+        <v>1.328125</v>
       </c>
       <c r="H31" t="n" s="776">
-        <v>0.549169647365276</v>
+        <v>1.448093300291527</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="765">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B32" t="n" s="770">
         <v>64.0</v>
       </c>
       <c r="C32" t="n" s="771">
-        <v>0.26366386375107587</v>
+        <v>0.6691080280694105</v>
       </c>
       <c r="D32" t="n" s="772">
-        <v>0.4105120452045554</v>
+        <v>0.589672329816255</v>
       </c>
       <c r="E32" t="n" s="773">
-        <v>0.4269190228457027</v>
+        <v>0.5086582419685449</v>
       </c>
       <c r="F32" t="n" s="774">
-        <v>0.16129929381013536</v>
+        <v>0.48121357999526854</v>
       </c>
       <c r="G32" t="n" s="775">
-        <v>0.15625</v>
+        <v>2.421875</v>
       </c>
       <c r="H32" t="n" s="776">
-        <v>0.6228136361680157</v>
+        <v>1.2699792211773475</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="765">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B33" t="n" s="770">
         <v>64.0</v>
       </c>
       <c r="C33" t="n" s="771">
-        <v>0.5068007793499968</v>
+        <v>0.604677307118413</v>
       </c>
       <c r="D33" t="n" s="772">
-        <v>0.4813448781682684</v>
+        <v>0.46457495320302333</v>
       </c>
       <c r="E33" t="n" s="773">
-        <v>0.355219006240922</v>
+        <v>0.45356273491813576</v>
       </c>
       <c r="F33" t="n" s="774">
-        <v>0.2890843824889087</v>
+        <v>0.40896912412475567</v>
       </c>
       <c r="G33" t="n" s="775">
-        <v>1.328125</v>
+        <v>2.09375</v>
       </c>
       <c r="H33" t="n" s="776">
-        <v>1.448093300291527</v>
+        <v>1.2047360245667467</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="765">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B34" t="n" s="770">
         <v>64.0</v>
       </c>
       <c r="C34" t="n" s="771">
-        <v>0.6746081189726193</v>
+        <v>0.5762234453243523</v>
       </c>
       <c r="D34" t="n" s="772">
-        <v>0.6517715851723508</v>
+        <v>0.4360465215075365</v>
       </c>
       <c r="E34" t="n" s="773">
-        <v>0.5635764736450798</v>
+        <v>0.4209323406195005</v>
       </c>
       <c r="F34" t="n" s="774">
-        <v>0.5275866626631517</v>
+        <v>0.374529953825248</v>
       </c>
       <c r="G34" t="n" s="775">
-        <v>2.421875</v>
+        <v>1.890625</v>
       </c>
       <c r="H34" t="n" s="776">
-        <v>1.2699792211773475</v>
+        <v>1.1967838846954226</v>
       </c>
     </row>
     <row r="35">
@@ -7990,54 +8155,54 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="780">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38">
       <c r="A38"/>
       <c r="B38" t="s" s="794">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C38" t="s" s="794">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D38" t="s" s="794">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E38" t="s" s="794">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F38" t="s" s="794">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G38" t="s" s="794">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H38" t="s" s="794">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="790">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B39" t="n" s="795">
-        <v>0.015625</v>
+        <v>0.9375</v>
       </c>
       <c r="C39" t="n" s="796">
-        <v>0.09375</v>
+        <v>0.0625</v>
       </c>
       <c r="D39" t="n" s="797">
-        <v>0.015625</v>
+        <v>0.0</v>
       </c>
       <c r="E39" t="n" s="798">
-        <v>0.40625</v>
+        <v>0.0</v>
       </c>
       <c r="F39" t="n" s="799">
-        <v>0.375</v>
+        <v>0.0</v>
       </c>
       <c r="G39" t="n" s="800">
-        <v>0.09375</v>
+        <v>0.0</v>
       </c>
       <c r="H39" t="n" s="801">
         <v>0.0</v>
@@ -8045,25 +8210,25 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="790">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B40" t="n" s="795">
-        <v>0.015625</v>
+        <v>0.9375</v>
       </c>
       <c r="C40" t="n" s="796">
-        <v>0.0</v>
+        <v>0.03125</v>
       </c>
       <c r="D40" t="n" s="797">
+        <v>0.0</v>
+      </c>
+      <c r="E40" t="n" s="798">
         <v>0.03125</v>
       </c>
-      <c r="E40" t="n" s="798">
-        <v>0.28125</v>
-      </c>
       <c r="F40" t="n" s="799">
-        <v>0.171875</v>
+        <v>0.0</v>
       </c>
       <c r="G40" t="n" s="800">
-        <v>0.5</v>
+        <v>0.0</v>
       </c>
       <c r="H40" t="n" s="801">
         <v>0.0</v>
@@ -8071,25 +8236,25 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="790">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B41" t="n" s="795">
-        <v>0.0</v>
+        <v>0.9375</v>
       </c>
       <c r="C41" t="n" s="796">
-        <v>0.09375</v>
+        <v>0.0</v>
       </c>
       <c r="D41" t="n" s="797">
-        <v>0.015625</v>
+        <v>0.03125</v>
       </c>
       <c r="E41" t="n" s="798">
-        <v>0.3125</v>
+        <v>0.03125</v>
       </c>
       <c r="F41" t="n" s="799">
-        <v>0.484375</v>
+        <v>0.0</v>
       </c>
       <c r="G41" t="n" s="800">
-        <v>0.09375</v>
+        <v>0.0</v>
       </c>
       <c r="H41" t="n" s="801">
         <v>0.0</v>
@@ -8097,25 +8262,25 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="790">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B42" t="n" s="795">
-        <v>0.0</v>
+        <v>0.015625</v>
       </c>
       <c r="C42" t="n" s="796">
-        <v>0.0</v>
+        <v>0.984375</v>
       </c>
       <c r="D42" t="n" s="797">
-        <v>0.09375</v>
+        <v>0.0</v>
       </c>
       <c r="E42" t="n" s="798">
-        <v>0.296875</v>
+        <v>0.0</v>
       </c>
       <c r="F42" t="n" s="799">
-        <v>0.09375</v>
+        <v>0.0</v>
       </c>
       <c r="G42" t="n" s="800">
-        <v>0.515625</v>
+        <v>0.0</v>
       </c>
       <c r="H42" t="n" s="801">
         <v>0.0</v>
@@ -8123,25 +8288,25 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="790">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B43" t="n" s="795">
-        <v>0.171875</v>
+        <v>0.015625</v>
       </c>
       <c r="C43" t="n" s="796">
-        <v>0.046875</v>
+        <v>0.09375</v>
       </c>
       <c r="D43" t="n" s="797">
+        <v>0.015625</v>
+      </c>
+      <c r="E43" t="n" s="798">
         <v>0.40625</v>
       </c>
-      <c r="E43" t="n" s="798">
-        <v>0.265625</v>
-      </c>
       <c r="F43" t="n" s="799">
-        <v>0.109375</v>
+        <v>0.375</v>
       </c>
       <c r="G43" t="n" s="800">
-        <v>0.0</v>
+        <v>0.09375</v>
       </c>
       <c r="H43" t="n" s="801">
         <v>0.0</v>
@@ -8149,25 +8314,25 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="790">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B44" t="n" s="795">
-        <v>0.21875</v>
+        <v>0.015625</v>
       </c>
       <c r="C44" t="n" s="796">
+        <v>0.0</v>
+      </c>
+      <c r="D44" t="n" s="797">
         <v>0.03125</v>
       </c>
-      <c r="D44" t="n" s="797">
-        <v>0.46875</v>
-      </c>
       <c r="E44" t="n" s="798">
-        <v>0.203125</v>
+        <v>0.28125</v>
       </c>
       <c r="F44" t="n" s="799">
-        <v>0.078125</v>
+        <v>0.171875</v>
       </c>
       <c r="G44" t="n" s="800">
-        <v>0.0</v>
+        <v>0.5</v>
       </c>
       <c r="H44" t="n" s="801">
         <v>0.0</v>
@@ -8175,22 +8340,22 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="790">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B45" t="n" s="795">
-        <v>0.9375</v>
+        <v>0.4375</v>
       </c>
       <c r="C45" t="n" s="796">
-        <v>0.03125</v>
+        <v>0.1875</v>
       </c>
       <c r="D45" t="n" s="797">
-        <v>0.0</v>
+        <v>0.078125</v>
       </c>
       <c r="E45" t="n" s="798">
-        <v>0.03125</v>
+        <v>0.203125</v>
       </c>
       <c r="F45" t="n" s="799">
-        <v>0.0</v>
+        <v>0.09375</v>
       </c>
       <c r="G45" t="n" s="800">
         <v>0.0</v>
@@ -8201,22 +8366,22 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="790">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B46" t="n" s="795">
-        <v>0.9375</v>
+        <v>0.140625</v>
       </c>
       <c r="C46" t="n" s="796">
-        <v>0.0</v>
+        <v>0.109375</v>
       </c>
       <c r="D46" t="n" s="797">
-        <v>0.03125</v>
+        <v>0.078125</v>
       </c>
       <c r="E46" t="n" s="798">
-        <v>0.03125</v>
+        <v>0.53125</v>
       </c>
       <c r="F46" t="n" s="799">
-        <v>0.0</v>
+        <v>0.140625</v>
       </c>
       <c r="G46" t="n" s="800">
         <v>0.0</v>
@@ -8227,22 +8392,22 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="790">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B47" t="n" s="795">
-        <v>0.4375</v>
+        <v>0.171875</v>
       </c>
       <c r="C47" t="n" s="796">
-        <v>0.1875</v>
+        <v>0.046875</v>
       </c>
       <c r="D47" t="n" s="797">
-        <v>0.078125</v>
+        <v>0.40625</v>
       </c>
       <c r="E47" t="n" s="798">
-        <v>0.203125</v>
+        <v>0.265625</v>
       </c>
       <c r="F47" t="n" s="799">
-        <v>0.09375</v>
+        <v>0.109375</v>
       </c>
       <c r="G47" t="n" s="800">
         <v>0.0</v>
@@ -8253,22 +8418,22 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="790">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B48" t="n" s="795">
-        <v>0.140625</v>
+        <v>0.21875</v>
       </c>
       <c r="C48" t="n" s="796">
-        <v>0.109375</v>
+        <v>0.03125</v>
       </c>
       <c r="D48" t="n" s="797">
+        <v>0.46875</v>
+      </c>
+      <c r="E48" t="n" s="798">
+        <v>0.203125</v>
+      </c>
+      <c r="F48" t="n" s="799">
         <v>0.078125</v>
-      </c>
-      <c r="E48" t="n" s="798">
-        <v>0.53125</v>
-      </c>
-      <c r="F48" t="n" s="799">
-        <v>0.140625</v>
       </c>
       <c r="G48" t="n" s="800">
         <v>0.0</v>
